--- a/masks/code/diplexer_FINAL_reformating.xlsx
+++ b/masks/code/diplexer_FINAL_reformating.xlsx
@@ -69,7 +69,7 @@
     <t>step size</t>
   </si>
   <si>
-    <t>(1-indexed, from LL)</t>
+    <t>(1-indexed, from UL)</t>
   </si>
   <si>
     <t>Layer</t>
@@ -135,6 +135,9 @@
     <t>TI_TES</t>
   </si>
   <si>
+    <t>PRO2</t>
+  </si>
+  <si>
     <t>GP</t>
   </si>
   <si>
@@ -171,22 +174,25 @@
     <t>slot_90_2</t>
   </si>
   <si>
-    <t>PRO2</t>
+    <t>RES</t>
   </si>
   <si>
-    <t>ILD_Via</t>
+    <t>RES_Au_both</t>
+  </si>
+  <si>
+    <t>RES_pro</t>
+  </si>
+  <si>
+    <t>RES_Pro_both</t>
+  </si>
+  <si>
+    <t>VIA</t>
   </si>
   <si>
     <t>DiplexerFilter_Via_V2</t>
   </si>
   <si>
     <t>tes_pro_via</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>RES_Au_both</t>
   </si>
   <si>
     <t>MS</t>
@@ -300,10 +306,10 @@
     <t>ms_layer_lf</t>
   </si>
   <si>
-    <t>RES_pro</t>
+    <t>LSN</t>
   </si>
   <si>
-    <t>RES_Pro_both</t>
+    <t>nitride_lf</t>
   </si>
   <si>
     <t>heat_cap</t>
@@ -319,12 +325,6 @@
   </si>
   <si>
     <t>picframe_revX_2000</t>
-  </si>
-  <si>
-    <t>nitride</t>
-  </si>
-  <si>
-    <t>nitride_lf</t>
   </si>
   <si>
     <t>XeF2_STS</t>
@@ -1785,44 +1785,44 @@
       </c>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-9.300000000000001</v>
+        <v>-5.65</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>4</v>
+        <v>-4.012</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>10.02</v>
+        <v>0.6</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>-9.65</v>
+        <v>-8.15</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>-8.950000000000001</v>
+        <v>-3.15</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>9.01</v>
+        <v>-3.712</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>-1.01</v>
+        <v>-4.311999999999999</v>
       </c>
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>-9.300000000000001</v>
+        <v>-5.65</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>4</v>
+        <v>-15.812</v>
       </c>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
@@ -1830,10 +1830,10 @@
         <v>34</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V23" s="1" t="n">
         <v>0</v>
@@ -1842,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>113.32</v>
+        <v>24.31</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>10</v>
+        <v>24.31</v>
       </c>
       <c r="Z23" s="1" t="n"/>
       <c r="AA23" s="1" t="n"/>
@@ -1857,44 +1857,44 @@
       </c>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0</v>
+        <v>-5.65</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>12</v>
+        <v>-4.012</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>16.02</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>-8.01</v>
+        <v>-8.15</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>8.01</v>
+        <v>-3.15</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>12.225</v>
+        <v>-3.712</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>11.775</v>
+        <v>-4.311999999999999</v>
       </c>
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>0</v>
+        <v>-11.8</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>0</v>
+        <v>-5.65</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>12</v>
+        <v>7.788000000000001</v>
       </c>
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
@@ -1902,22 +1902,22 @@
         <v>34</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="W24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>15</v>
+        <v>24.31</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>113.32</v>
+        <v>24.31</v>
       </c>
       <c r="Z24" s="1" t="n"/>
       <c r="AA24" s="1" t="n"/>
@@ -1925,35 +1925,35 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>16.02</v>
+        <v>0.7</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.45</v>
+        <v>10.02</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>-8.01</v>
+        <v>-9.65</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>8.01</v>
+        <v>-8.950000000000001</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>12.225</v>
+        <v>9.01</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>11.775</v>
+        <v>-1.01</v>
       </c>
       <c r="L25" s="1" t="n"/>
       <c r="M25" s="1" t="n">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>0</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
@@ -1974,22 +1974,22 @@
         <v>34</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>15</v>
+        <v>113.32</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>113.32</v>
+        <v>10</v>
       </c>
       <c r="Z25" s="1" t="n"/>
       <c r="AA25" s="1" t="n"/>
@@ -1997,35 +1997,35 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1.4</v>
+        <v>16.02</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>-7.100000000000001</v>
+        <v>-8.01</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>-5.7</v>
+        <v>8.01</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>3.53</v>
+        <v>12.225</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>3.07</v>
+        <v>11.775</v>
       </c>
       <c r="L26" s="1" t="n"/>
       <c r="M26" s="1" t="n">
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
@@ -2046,96 +2046,94 @@
         <v>34</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="W26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>22.644</v>
+        <v>15</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>23.6</v>
+        <v>113.32</v>
       </c>
       <c r="Z26" s="1" t="n"/>
       <c r="AA26" s="1" t="n"/>
-      <c r="AB26" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="AB26" s="1" t="s"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>-10.8</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.55</v>
+        <v>16.02</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>4.425</v>
+        <v>-8.01</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>4.975000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>-10.525</v>
+        <v>12.225</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>-11.075</v>
+        <v>11.775</v>
       </c>
       <c r="L27" s="1" t="n"/>
       <c r="M27" s="1" t="n">
-        <v>4.175</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>-11.242</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>0.5250000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>0.4420000000000002</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
       <c r="S27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="W27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X27" s="1" t="n">
-        <v>24.31</v>
+        <v>15</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>24.31</v>
+        <v>113.32</v>
       </c>
       <c r="Z27" s="1" t="n"/>
       <c r="AA27" s="1" t="n"/>
@@ -2143,59 +2141,59 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>4.7</v>
+        <v>-6.4</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-10.8</v>
+        <v>3.3</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.55</v>
+        <v>1.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>4.425</v>
+        <v>-7.100000000000001</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>4.975000000000001</v>
+        <v>-5.7</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>-10.525</v>
+        <v>3.53</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>-11.075</v>
+        <v>3.07</v>
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
-        <v>2.325</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>-11.242</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>2.375</v>
+        <v>-6.4</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>0.4420000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
       <c r="S28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>0</v>
@@ -2204,22 +2202,24 @@
         <v>0</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>24.31</v>
+        <v>12</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>24.31</v>
+        <v>12</v>
       </c>
       <c r="Z28" s="1" t="n"/>
       <c r="AA28" s="1" t="n"/>
-      <c r="AB28" s="1" t="s"/>
+      <c r="AB28" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>4.7</v>
@@ -2247,16 +2247,16 @@
       </c>
       <c r="L29" s="1" t="n"/>
       <c r="M29" s="1" t="n">
-        <v>0</v>
+        <v>4.175</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>0</v>
+        <v>-11.242</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>4.7</v>
+        <v>0.5250000000000004</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>-10.8</v>
+        <v>0.4420000000000002</v>
       </c>
       <c r="Q29" s="1" t="n"/>
       <c r="R29" s="1" t="n"/>
@@ -2264,22 +2264,22 @@
         <v>32</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>55.755</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>24.31</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.55</v>
+        <v>24.31</v>
       </c>
       <c r="Z29" s="1" t="n"/>
       <c r="AA29" s="1" t="n"/>
@@ -2287,53 +2287,53 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>-3.8</v>
+        <v>4.7</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>4</v>
+        <v>-10.8</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.9745</v>
+        <v>0.55</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>-4.045</v>
+        <v>4.425</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>-3.555</v>
+        <v>4.975000000000001</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>4.48725</v>
+        <v>-10.525</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>3.51275</v>
+        <v>-11.075</v>
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
-        <v>11.805</v>
+        <v>2.325</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>0.768</v>
+        <v>-11.242</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>-15.605</v>
+        <v>2.375</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>3.232</v>
+        <v>0.4420000000000002</v>
       </c>
       <c r="Q30" s="1" t="n"/>
       <c r="R30" s="1" t="n"/>
       <c r="S30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T30" s="1" t="n">
         <v>4</v>
@@ -2359,71 +2359,71 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-3.8</v>
+        <v>4.7</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>4</v>
+        <v>-10.8</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.9745</v>
+        <v>0.55</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>-4.045</v>
+        <v>4.425</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>-3.555</v>
+        <v>4.975000000000001</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>4.48725</v>
+        <v>-10.525</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>3.51275</v>
+        <v>-11.075</v>
       </c>
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n">
-        <v>-11.805</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>-0.162</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>8.004999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>4.162</v>
+        <v>-10.8</v>
       </c>
       <c r="Q31" s="1" t="n"/>
       <c r="R31" s="1" t="n"/>
       <c r="S31" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>0</v>
+        <v>55.755</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>24.31</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="1" t="n"/>
       <c r="AA31" s="1" t="n"/>
@@ -2431,71 +2431,71 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>1.4</v>
+        <v>-3.8</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>-11.2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>5.4</v>
+        <v>0.49</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1.54</v>
+        <v>0.9745</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>-1.3</v>
+        <v>-4.045</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>4.1</v>
+        <v>-3.555</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>-10.405</v>
+        <v>4.48725</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>-11.945</v>
+        <v>3.51275</v>
       </c>
       <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n">
-        <v>0</v>
+        <v>11.805</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.768</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>1.4</v>
+        <v>-15.605</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>-11.175</v>
+        <v>3.232</v>
       </c>
       <c r="Q32" s="1" t="n"/>
       <c r="R32" s="1" t="n"/>
       <c r="S32" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>55.355</v>
+        <v>0</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>24.31</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>2.2</v>
+        <v>24.31</v>
       </c>
       <c r="Z32" s="1" t="n"/>
       <c r="AA32" s="1" t="n"/>
@@ -2503,59 +2503,59 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>1</v>
+        <v>-3.8</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-2.2</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>12.2</v>
+        <v>0.49</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>12.3</v>
+        <v>0.9745</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>-5.1</v>
+        <v>-4.045</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>7.1</v>
+        <v>-3.555</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>3.95</v>
+        <v>4.48725</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>-8.350000000000001</v>
+        <v>3.51275</v>
       </c>
       <c r="L33" s="1" t="n"/>
       <c r="M33" s="1" t="n">
-        <v>0</v>
+        <v>-11.805</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.162</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>1</v>
+        <v>8.004999999999999</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>-2.199</v>
+        <v>4.162</v>
       </c>
       <c r="Q33" s="1" t="n"/>
       <c r="R33" s="1" t="n"/>
       <c r="S33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V33" s="1" t="n">
         <v>0</v>
@@ -2564,84 +2564,82 @@
         <v>0</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>11.16</v>
+        <v>24.31</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>11.16</v>
+        <v>24.31</v>
       </c>
       <c r="Z33" s="1" t="n"/>
       <c r="AA33" s="1" t="n"/>
-      <c r="AB33" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="AB33" s="1" t="s"/>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-5.65</v>
+        <v>1.4</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-1.006</v>
+        <v>-11.2</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>6.512</v>
+        <v>5.4</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.61</v>
+        <v>1.54</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>-8.906000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>-2.394000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>-0.7010000000000001</v>
+        <v>-10.405</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>-1.311</v>
+        <v>-11.945</v>
       </c>
       <c r="L34" s="1" t="n"/>
       <c r="M34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>11.8</v>
+        <v>-0.025</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>-5.65</v>
+        <v>1.4</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>-12.806</v>
+        <v>-11.175</v>
       </c>
       <c r="Q34" s="1" t="n"/>
       <c r="R34" s="1" t="n"/>
       <c r="S34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0</v>
+        <v>55.355</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>24.31</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1" t="n"/>
       <c r="AA34" s="1" t="n"/>
@@ -2649,59 +2647,59 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-5.65</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-1.006</v>
+        <v>-2.2</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>6.512</v>
+        <v>12.2</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.61</v>
+        <v>12.3</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>-8.906000000000001</v>
+        <v>-5.1</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>-2.394000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>-0.7010000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-1.311</v>
+        <v>-8.350000000000001</v>
       </c>
       <c r="L35" s="1" t="n"/>
       <c r="M35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>-11.8</v>
+        <v>-0.001</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>-5.65</v>
+        <v>1</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>10.794</v>
+        <v>-2.199</v>
       </c>
       <c r="Q35" s="1" t="n"/>
       <c r="R35" s="1" t="n"/>
       <c r="S35" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V35" s="1" t="n">
         <v>0</v>
@@ -2710,59 +2708,61 @@
         <v>0</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>24.31</v>
+        <v>12</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>24.31</v>
+        <v>12</v>
       </c>
       <c r="Z35" s="1" t="n"/>
       <c r="AA35" s="1" t="n"/>
-      <c r="AB35" s="1" t="s"/>
+      <c r="AB35" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-6.5</v>
+        <v>-5.65</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-1.006</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1.44</v>
+        <v>6.512</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1.44</v>
+        <v>0.61</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>-7.22</v>
+        <v>-8.906000000000001</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>-5.78</v>
+        <v>-2.394000000000001</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>9.520000000000001</v>
+        <v>-0.7010000000000001</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>8.08</v>
+        <v>-1.311</v>
       </c>
       <c r="L36" s="1" t="n"/>
       <c r="M36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>-6.5</v>
+        <v>-5.65</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-12.806</v>
       </c>
       <c r="Q36" s="1" t="n"/>
       <c r="R36" s="1" t="n"/>
@@ -2770,22 +2770,22 @@
         <v>34</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Z36" s="1" t="n"/>
       <c r="AA36" s="1" t="n"/>
@@ -2793,48 +2793,48 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>-4</v>
+        <v>-5.65</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-1.006</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>2.95</v>
+        <v>6.512</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1.44</v>
+        <v>0.61</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>-5.475</v>
+        <v>-8.906000000000001</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>-2.525</v>
+        <v>-2.394000000000001</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>9.520000000000001</v>
+        <v>-0.7010000000000001</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>8.08</v>
+        <v>-1.311</v>
       </c>
       <c r="L37" s="1" t="n"/>
       <c r="M37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>0</v>
+        <v>-11.8</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>-4</v>
+        <v>-5.65</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>10.794</v>
       </c>
       <c r="Q37" s="1" t="n"/>
       <c r="R37" s="1" t="n"/>
@@ -2842,22 +2842,22 @@
         <v>34</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>54.5</v>
+        <v>0</v>
       </c>
       <c r="W37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Z37" s="1" t="n"/>
       <c r="AA37" s="1" t="n"/>
@@ -2865,48 +2865,48 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>-5.65</v>
+        <v>-6.5</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>-4.012</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>5</v>
+        <v>1.44</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.6</v>
+        <v>1.44</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>-8.15</v>
+        <v>-7.22</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>-3.15</v>
+        <v>-5.78</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>-3.712</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>-4.311999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>-5.65</v>
+        <v>-6.5</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>-15.812</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q38" s="1" t="n"/>
       <c r="R38" s="1" t="n"/>
@@ -2914,22 +2914,22 @@
         <v>34</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="W38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="1" t="n"/>
       <c r="AA38" s="1" t="n"/>
@@ -2937,48 +2937,48 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-5.65</v>
+        <v>-4</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-4.012</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>5</v>
+        <v>2.95</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.6</v>
+        <v>1.44</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-8.15</v>
+        <v>-5.475</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>-3.15</v>
+        <v>-2.525</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>-3.712</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>-4.311999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="L39" s="1" t="n"/>
       <c r="M39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>-11.8</v>
+        <v>0</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>-5.65</v>
+        <v>-4</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>7.788000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q39" s="1" t="n"/>
       <c r="R39" s="1" t="n"/>
@@ -2986,22 +2986,22 @@
         <v>34</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="W39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="1" t="n"/>
       <c r="AA39" s="1" t="n"/>
@@ -3016,41 +3016,41 @@
         <v>53</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-4.5</v>
+        <v>-5.65</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>4</v>
+        <v>-4.612</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.45</v>
+        <v>5</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>-4.725</v>
+        <v>-8.15</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>-4.275</v>
+        <v>-3.15</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>4.405</v>
+        <v>-4.312</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>3.595</v>
+        <v>-4.912</v>
       </c>
       <c r="L40" s="1" t="n"/>
       <c r="M40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="n">
         <v>11.8</v>
       </c>
-      <c r="N40" s="1" t="n">
-        <v>0.889</v>
-      </c>
       <c r="O40" s="1" t="n">
-        <v>-16.3</v>
+        <v>-5.65</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>3.111</v>
+        <v>-16.412</v>
       </c>
       <c r="Q40" s="1" t="n"/>
       <c r="R40" s="1" t="n"/>
@@ -3088,41 +3088,41 @@
         <v>53</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-4.5</v>
+        <v>-5.65</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>4</v>
+        <v>-4.612</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.45</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>-4.725</v>
+        <v>-8.15</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>-4.275</v>
+        <v>-3.15</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>4.405</v>
+        <v>-4.312</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>3.595</v>
+        <v>-4.912</v>
       </c>
       <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n">
-        <v>-11.81</v>
+        <v>0</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>-0.04100000000000004</v>
+        <v>-11.8</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>7.309999999999999</v>
+        <v>-5.65</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>4.041</v>
+        <v>7.188000000000001</v>
       </c>
       <c r="Q41" s="1" t="n"/>
       <c r="R41" s="1" t="n"/>
@@ -3153,17 +3153,17 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>-5.65</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-2.212</v>
+        <v>-5.812</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>5</v>
@@ -3178,10 +3178,10 @@
         <v>-3.15</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>-1.912</v>
+        <v>-5.512</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>-2.512</v>
+        <v>-6.112</v>
       </c>
       <c r="L42" s="1" t="n"/>
       <c r="M42" s="1" t="n">
@@ -3194,7 +3194,7 @@
         <v>-5.65</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>-14.012</v>
+        <v>-17.612</v>
       </c>
       <c r="Q42" s="1" t="n"/>
       <c r="R42" s="1" t="n"/>
@@ -3225,17 +3225,17 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>-5.65</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-2.212</v>
+        <v>-5.812</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>5</v>
@@ -3250,10 +3250,10 @@
         <v>-3.15</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>-1.912</v>
+        <v>-5.512</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>-2.512</v>
+        <v>-6.112</v>
       </c>
       <c r="L43" s="1" t="n"/>
       <c r="M43" s="1" t="n">
@@ -3266,7 +3266,7 @@
         <v>-5.65</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>9.588000000000001</v>
+        <v>5.988</v>
       </c>
       <c r="Q43" s="1" t="n"/>
       <c r="R43" s="1" t="n"/>
@@ -3297,48 +3297,48 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-5.65</v>
+        <v>-4.5</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-4.612</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>5</v>
+        <v>0.45</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.6</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>-8.15</v>
+        <v>-4.725</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>-3.15</v>
+        <v>-4.275</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>-4.312</v>
+        <v>4.405</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>-4.912</v>
+        <v>3.595</v>
       </c>
       <c r="L44" s="1" t="n"/>
       <c r="M44" s="1" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>11.8</v>
+        <v>0.889</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>-5.65</v>
+        <v>-16.3</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>-16.412</v>
+        <v>3.111</v>
       </c>
       <c r="Q44" s="1" t="n"/>
       <c r="R44" s="1" t="n"/>
@@ -3369,48 +3369,48 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-5.65</v>
+        <v>-4.5</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-4.612</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>5</v>
+        <v>0.45</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.6</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>-8.15</v>
+        <v>-4.725</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>-3.15</v>
+        <v>-4.275</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>-4.312</v>
+        <v>4.405</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>-4.912</v>
+        <v>3.595</v>
       </c>
       <c r="L45" s="1" t="n"/>
       <c r="M45" s="1" t="n">
-        <v>0</v>
+        <v>-11.81</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>-11.8</v>
+        <v>-0.04100000000000004</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>-5.65</v>
+        <v>7.309999999999999</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>7.188000000000001</v>
+        <v>4.041</v>
       </c>
       <c r="Q45" s="1" t="n"/>
       <c r="R45" s="1" t="n"/>
@@ -3441,48 +3441,48 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>-6.4</v>
+        <v>-5.65</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>2.7</v>
+        <v>-2.212</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>-7.100000000000001</v>
+        <v>-8.15</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>-5.7</v>
+        <v>-3.15</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>2.924</v>
+        <v>-1.912</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>2.464</v>
+        <v>-2.512</v>
       </c>
       <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n">
-        <v>-11.322</v>
+        <v>0</v>
       </c>
       <c r="N46" s="1" t="n">
         <v>11.8</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>4.921999999999999</v>
+        <v>-5.65</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>-9.100000000000001</v>
+        <v>-14.012</v>
       </c>
       <c r="Q46" s="1" t="n"/>
       <c r="R46" s="1" t="n"/>
@@ -3513,48 +3513,48 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>-6.4</v>
+        <v>-5.65</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>4</v>
+        <v>-2.212</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>-7.100000000000001</v>
+        <v>-8.15</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>-5.7</v>
+        <v>-3.15</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>4.23</v>
+        <v>-1.912</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>3.77</v>
+        <v>-2.512</v>
       </c>
       <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>-0.006</v>
+        <v>-11.8</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>-6.4</v>
+        <v>-5.65</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>4.006</v>
+        <v>9.588000000000001</v>
       </c>
       <c r="Q47" s="1" t="n"/>
       <c r="R47" s="1" t="n"/>
@@ -3562,10 +3562,10 @@
         <v>34</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V47" s="1" t="n">
         <v>0</v>
@@ -3574,84 +3574,82 @@
         <v>0</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>22.644</v>
+        <v>24.31</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>23.6</v>
+        <v>24.31</v>
       </c>
       <c r="Z47" s="1" t="n"/>
       <c r="AA47" s="1" t="n"/>
-      <c r="AB47" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="AB47" s="1" t="s"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>-4.5</v>
+        <v>-6.4</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>-11.3</v>
+        <v>2.7</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>5.35</v>
+        <v>1.4</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>2.2</v>
+        <v>0.46</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>-7.175</v>
+        <v>-7.100000000000001</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>-1.825</v>
+        <v>-5.7</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>-10.5</v>
+        <v>2.924</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>-12.7</v>
+        <v>2.464</v>
       </c>
       <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n">
-        <v>0</v>
+        <v>-11.322</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>-4.5</v>
+        <v>4.921999999999999</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>-11.3</v>
+        <v>-9.100000000000001</v>
       </c>
       <c r="Q48" s="1" t="n"/>
       <c r="R48" s="1" t="n"/>
       <c r="S48" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>55.355</v>
+        <v>0</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>24.31</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>2.2</v>
+        <v>24.31</v>
       </c>
       <c r="Z48" s="1" t="n"/>
       <c r="AA48" s="1" t="n"/>
@@ -3659,107 +3657,109 @@
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-4.929</v>
+        <v>-6.4</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>10.2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>-5.429</v>
+        <v>-7.100000000000001</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>-4.429</v>
+        <v>-5.7</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>10.7</v>
+        <v>4.23</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>9.699999999999999</v>
+        <v>3.77</v>
       </c>
       <c r="L49" s="1" t="n"/>
       <c r="M49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>-4.929</v>
+        <v>-6.4</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>10.2</v>
+        <v>4.006</v>
       </c>
       <c r="Q49" s="1" t="n"/>
       <c r="R49" s="1" t="n"/>
       <c r="S49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>-28.682</v>
+        <v>0</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>49.115</v>
+        <v>0</v>
       </c>
       <c r="X49" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y49" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z49" s="1" t="n"/>
       <c r="AA49" s="1" t="n"/>
-      <c r="AB49" s="1" t="s"/>
+      <c r="AB49" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>-3.73</v>
+        <v>-4.5</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>10.2</v>
+        <v>-11.3</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1.4</v>
+        <v>5.35</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>-4.43</v>
+        <v>-7.175</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>-3.03</v>
+        <v>-1.825</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>10.7</v>
+        <v>-10.5</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>9.699999999999999</v>
+        <v>-12.7</v>
       </c>
       <c r="L50" s="1" t="n"/>
       <c r="M50" s="1" t="n">
@@ -3769,10 +3769,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>-3.73</v>
+        <v>-4.5</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>10.2</v>
+        <v>-11.3</v>
       </c>
       <c r="Q50" s="1" t="n"/>
       <c r="R50" s="1" t="n"/>
@@ -3780,19 +3780,19 @@
         <v>32</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>-20.482</v>
+        <v>-0.01</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>49.115</v>
+        <v>55.355</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y50" s="1" t="n">
         <v>0</v>
@@ -3803,29 +3803,29 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>-2.33</v>
+        <v>-4.929</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>10.2</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>-3.03</v>
+        <v>-5.429</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>-1.63</v>
+        <v>-4.429</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>10.7</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>-2.33</v>
+        <v>-4.929</v>
       </c>
       <c r="P51" s="1" t="n">
         <v>10.2</v>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>-12.282</v>
+        <v>-28.682</v>
       </c>
       <c r="W51" s="1" t="n">
         <v>49.115</v>
@@ -3875,14 +3875,14 @@
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-0.93</v>
+        <v>-3.73</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>10.2</v>
@@ -3894,10 +3894,10 @@
         <v>1</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>-1.63</v>
+        <v>-4.43</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>-0.2300000000000001</v>
+        <v>-3.03</v>
       </c>
       <c r="J52" s="1" t="n">
         <v>10.7</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>-0.93</v>
+        <v>-3.73</v>
       </c>
       <c r="P52" s="1" t="n">
         <v>10.2</v>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>-4.082</v>
+        <v>-20.482</v>
       </c>
       <c r="W52" s="1" t="n">
         <v>49.115</v>
@@ -3947,14 +3947,14 @@
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.47</v>
+        <v>-2.33</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>10.2</v>
@@ -3966,10 +3966,10 @@
         <v>1</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>-0.23</v>
+        <v>-3.03</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>1.17</v>
+        <v>-1.63</v>
       </c>
       <c r="J53" s="1" t="n">
         <v>10.7</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>0.47</v>
+        <v>-2.33</v>
       </c>
       <c r="P53" s="1" t="n">
         <v>10.2</v>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>4.118</v>
+        <v>-12.282</v>
       </c>
       <c r="W53" s="1" t="n">
         <v>49.115</v>
@@ -4019,14 +4019,14 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1.87</v>
+        <v>-0.93</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>10.2</v>
@@ -4038,10 +4038,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1.17</v>
+        <v>-1.63</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>2.57</v>
+        <v>-0.2300000000000001</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>10.7</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>1.87</v>
+        <v>-0.93</v>
       </c>
       <c r="P54" s="1" t="n">
         <v>10.2</v>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>12.318</v>
+        <v>-4.082</v>
       </c>
       <c r="W54" s="1" t="n">
         <v>49.115</v>
@@ -4091,14 +4091,14 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>3.27</v>
+        <v>0.47</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>10.2</v>
@@ -4110,10 +4110,10 @@
         <v>1</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>2.57</v>
+        <v>-0.23</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>3.97</v>
+        <v>1.17</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>10.7</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>3.27</v>
+        <v>0.47</v>
       </c>
       <c r="P55" s="1" t="n">
         <v>10.2</v>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>20.518</v>
+        <v>4.118</v>
       </c>
       <c r="W55" s="1" t="n">
         <v>49.115</v>
@@ -4163,29 +4163,29 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>4.77</v>
+        <v>1.87</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>10.2</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>3.97</v>
+        <v>1.17</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>5.569999999999999</v>
+        <v>2.57</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>10.7</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>4.77</v>
+        <v>1.87</v>
       </c>
       <c r="P56" s="1" t="n">
         <v>10.2</v>
@@ -4218,10 +4218,10 @@
         <v>1</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>28.763</v>
+        <v>12.318</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>49.155</v>
+        <v>49.115</v>
       </c>
       <c r="X56" s="1" t="n">
         <v>0</v>
@@ -4235,48 +4235,48 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>-6.4</v>
+        <v>3.27</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>-2.724</v>
+        <v>10.2</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>-6.7</v>
+        <v>2.57</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>-6.100000000000001</v>
+        <v>3.97</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>4.2765</v>
+        <v>10.7</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>-9.723500000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L57" s="1" t="n"/>
       <c r="M57" s="1" t="n">
-        <v>-12.008</v>
+        <v>0</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>5.913</v>
+        <v>0</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>5.607999999999999</v>
+        <v>3.27</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>-8.637</v>
+        <v>10.2</v>
       </c>
       <c r="Q57" s="1" t="n"/>
       <c r="R57" s="1" t="n"/>
@@ -4284,22 +4284,22 @@
         <v>32</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0</v>
+        <v>20.518</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>0</v>
+        <v>49.115</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="1" t="n"/>
       <c r="AA57" s="1" t="n"/>
@@ -4307,48 +4307,48 @@
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>-5.8</v>
+        <v>4.77</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>-2.449</v>
+        <v>10.2</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>13.45</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>-6.1</v>
+        <v>3.97</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>-5.5</v>
+        <v>5.569999999999999</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>4.276</v>
+        <v>10.7</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>-9.173999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L58" s="1" t="n"/>
       <c r="M58" s="1" t="n">
-        <v>12.008</v>
+        <v>0</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>-5.888</v>
+        <v>0</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>-17.808</v>
+        <v>4.77</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>3.439</v>
+        <v>10.2</v>
       </c>
       <c r="Q58" s="1" t="n"/>
       <c r="R58" s="1" t="n"/>
@@ -4356,22 +4356,22 @@
         <v>32</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0</v>
+        <v>28.763</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>0</v>
+        <v>49.155</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="1" t="n"/>
       <c r="AA58" s="1" t="n"/>
@@ -4379,48 +4379,48 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>-7</v>
+        <v>-6.4</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>-2.974</v>
+        <v>-2.724</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>-7.3</v>
+        <v>-6.7</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>-6.7</v>
+        <v>-6.100000000000001</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>3.026</v>
+        <v>4.2765</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>-8.974</v>
+        <v>-9.723500000000001</v>
       </c>
       <c r="L59" s="1" t="n"/>
       <c r="M59" s="1" t="n">
-        <v>12.008</v>
+        <v>-12.008</v>
       </c>
       <c r="N59" s="1" t="n">
-        <v>6.373</v>
+        <v>5.913</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>-19.008</v>
+        <v>5.607999999999999</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>-9.347000000000001</v>
+        <v>-8.637</v>
       </c>
       <c r="Q59" s="1" t="n"/>
       <c r="R59" s="1" t="n"/>
@@ -4431,7 +4431,7 @@
         <v>4</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V59" s="1" t="n">
         <v>0</v>
@@ -4451,48 +4451,48 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>-7</v>
+        <v>-5.8</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>-2.974</v>
+        <v>-2.449</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>12</v>
+        <v>13.45</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>-7.3</v>
+        <v>-6.1</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>-6.7</v>
+        <v>-5.5</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>3.026</v>
+        <v>4.276</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>-8.974</v>
+        <v>-9.173999999999999</v>
       </c>
       <c r="L60" s="1" t="n"/>
       <c r="M60" s="1" t="n">
-        <v>-12.008</v>
+        <v>12.008</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>18.069</v>
+        <v>-5.888</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>5.007999999999999</v>
+        <v>-17.808</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>-21.043</v>
+        <v>3.439</v>
       </c>
       <c r="Q60" s="1" t="n"/>
       <c r="R60" s="1" t="n"/>
@@ -4503,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V60" s="1" t="n">
         <v>0</v>
@@ -4515,61 +4515,63 @@
         <v>24.31</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>24.31</v>
+        <v>-0</v>
       </c>
       <c r="Z60" s="1" t="n"/>
       <c r="AA60" s="1" t="n"/>
-      <c r="AB60" s="1" t="s"/>
+      <c r="AB60" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>-4.548</v>
+        <v>-7</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>2.4</v>
+        <v>-2.974</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1.95</v>
+        <v>12</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>-4.828</v>
+        <v>-7.3</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>-4.268</v>
+        <v>-6.7</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>3.37495</v>
+        <v>3.026</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>1.42495</v>
+        <v>-8.974</v>
       </c>
       <c r="L61" s="1" t="n"/>
       <c r="M61" s="1" t="n">
-        <v>-11.79</v>
+        <v>12.008</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>-0.608</v>
+        <v>6.373</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>7.241999999999999</v>
+        <v>-19.008</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>3.008</v>
+        <v>-9.347000000000001</v>
       </c>
       <c r="Q61" s="1" t="n"/>
       <c r="R61" s="1" t="n"/>
       <c r="S61" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T61" s="1" t="n">
         <v>4</v>
@@ -4587,67 +4589,69 @@
         <v>24.31</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>24.31</v>
+        <v>-0</v>
       </c>
       <c r="Z61" s="1" t="n"/>
       <c r="AA61" s="1" t="n"/>
-      <c r="AB61" s="1" t="s"/>
+      <c r="AB61" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>-3.8</v>
+        <v>-7</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>2.4</v>
+        <v>-2.974</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1.95</v>
+        <v>12</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>-4.08</v>
+        <v>-7.3</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>-3.52</v>
+        <v>-6.7</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>3.375</v>
+        <v>3.026</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>1.425</v>
+        <v>-8.974</v>
       </c>
       <c r="L62" s="1" t="n"/>
       <c r="M62" s="1" t="n">
-        <v>11.785</v>
+        <v>-12.008</v>
       </c>
       <c r="N62" s="1" t="n">
-        <v>0.322</v>
+        <v>18.069</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>-15.585</v>
+        <v>5.007999999999999</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>2.078</v>
+        <v>-21.043</v>
       </c>
       <c r="Q62" s="1" t="n"/>
       <c r="R62" s="1" t="n"/>
       <c r="S62" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T62" s="1" t="n">
         <v>4</v>
       </c>
       <c r="U62" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V62" s="1" t="n">
         <v>0</v>
@@ -4667,71 +4671,71 @@
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>-5.929</v>
+        <v>-4.548</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>10.2</v>
+        <v>2.4</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1</v>
+        <v>1.95</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-6.429</v>
+        <v>-4.828</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>-5.429</v>
+        <v>-4.268</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>10.7</v>
+        <v>3.37495</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>9.699999999999999</v>
+        <v>1.42495</v>
       </c>
       <c r="L63" s="1" t="n"/>
       <c r="M63" s="1" t="n">
-        <v>0</v>
+        <v>-11.79</v>
       </c>
       <c r="N63" s="1" t="n">
-        <v>0</v>
+        <v>-0.608</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>-5.929</v>
+        <v>7.241999999999999</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>10.2</v>
+        <v>3.008</v>
       </c>
       <c r="Q63" s="1" t="n"/>
       <c r="R63" s="1" t="n"/>
       <c r="S63" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T63" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U63" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>-36.388</v>
+        <v>0</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>48.99</v>
+        <v>0</v>
       </c>
       <c r="X63" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Y63" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Z63" s="1" t="n"/>
       <c r="AA63" s="1" t="n"/>
@@ -4739,71 +4743,71 @@
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>6.069</v>
+        <v>-3.8</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>10.2</v>
+        <v>2.4</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1</v>
+        <v>1.95</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>5.569</v>
+        <v>-4.08</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>6.569</v>
+        <v>-3.52</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>10.7</v>
+        <v>3.375</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>9.699999999999999</v>
+        <v>1.425</v>
       </c>
       <c r="L64" s="1" t="n"/>
       <c r="M64" s="1" t="n">
-        <v>0</v>
+        <v>11.785</v>
       </c>
       <c r="N64" s="1" t="n">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>6.069</v>
+        <v>-15.585</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>10.2</v>
+        <v>2.078</v>
       </c>
       <c r="Q64" s="1" t="n"/>
       <c r="R64" s="1" t="n"/>
       <c r="S64" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T64" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U64" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>36.4175</v>
+        <v>0</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>49.02</v>
+        <v>0</v>
       </c>
       <c r="X64" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Y64" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Z64" s="1" t="n"/>
       <c r="AA64" s="1" t="n"/>
@@ -4811,48 +4815,48 @@
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>-3.31</v>
+        <v>-5.929</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>5.139</v>
+        <v>10.2</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>8.279999999999999</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>0.403</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>-7.449999999999999</v>
+        <v>-6.429</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>0.8299999999999996</v>
+        <v>-5.429</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>5.3405</v>
+        <v>10.7</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>4.9375</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L65" s="1" t="n"/>
       <c r="M65" s="1" t="n">
-        <v>-6.901</v>
+        <v>0</v>
       </c>
       <c r="N65" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>3.591</v>
+        <v>-5.929</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>5.139</v>
+        <v>10.2</v>
       </c>
       <c r="Q65" s="1" t="n"/>
       <c r="R65" s="1" t="n"/>
@@ -4860,96 +4864,94 @@
         <v>32</v>
       </c>
       <c r="T65" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U65" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>0</v>
+        <v>-36.388</v>
       </c>
       <c r="W65" s="1" t="n">
-        <v>0</v>
+        <v>48.99</v>
       </c>
       <c r="X65" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1" t="n"/>
       <c r="AA65" s="1" t="n"/>
-      <c r="AB65" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="AB65" s="1" t="s"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>-5.65</v>
+        <v>6.069</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>-5.212</v>
+        <v>10.2</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>-8.15</v>
+        <v>5.569</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>-3.15</v>
+        <v>6.569</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>-4.912</v>
+        <v>10.7</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>-5.512</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L66" s="1" t="n"/>
       <c r="M66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N66" s="1" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>-5.65</v>
+        <v>6.069</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-17.012</v>
+        <v>10.2</v>
       </c>
       <c r="Q66" s="1" t="n"/>
       <c r="R66" s="1" t="n"/>
       <c r="S66" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T66" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U66" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V66" s="1" t="n">
-        <v>0</v>
+        <v>36.4175</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>0</v>
+        <v>49.02</v>
       </c>
       <c r="X66" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="1" t="n"/>
       <c r="AA66" s="1" t="n"/>
@@ -4957,59 +4959,59 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>-5.65</v>
+        <v>-3.31</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>-5.212</v>
+        <v>5.139</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>5</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>0.6</v>
+        <v>0.403</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>-8.15</v>
+        <v>-7.449999999999999</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>-3.15</v>
+        <v>0.8299999999999996</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>-4.912</v>
+        <v>5.3405</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>-5.512</v>
+        <v>4.9375</v>
       </c>
       <c r="L67" s="1" t="n"/>
       <c r="M67" s="1" t="n">
-        <v>0</v>
+        <v>-6.901</v>
       </c>
       <c r="N67" s="1" t="n">
-        <v>-11.8</v>
+        <v>-0</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>-5.65</v>
+        <v>3.591</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>6.588000000000001</v>
+        <v>5.139</v>
       </c>
       <c r="Q67" s="1" t="n"/>
       <c r="R67" s="1" t="n"/>
       <c r="S67" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T67" s="1" t="n">
         <v>4</v>
       </c>
       <c r="U67" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V67" s="1" t="n">
         <v>0</v>
@@ -5021,67 +5023,69 @@
         <v>24.31</v>
       </c>
       <c r="Y67" s="1" t="n">
-        <v>24.31</v>
+        <v>12</v>
       </c>
       <c r="Z67" s="1" t="n"/>
       <c r="AA67" s="1" t="n"/>
-      <c r="AB67" s="1" t="s"/>
+      <c r="AB67" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>-7</v>
+        <v>-5.65</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>3.651</v>
+        <v>-5.212</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>0.55</v>
+        <v>5</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>-7.275</v>
+        <v>-8.15</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>-6.725</v>
+        <v>-3.15</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>4.276</v>
+        <v>-4.912</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>3.026</v>
+        <v>-5.512</v>
       </c>
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n">
-        <v>-12.008</v>
+        <v>0</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>48.234</v>
+        <v>11.8</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>5.007999999999999</v>
+        <v>-5.65</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>-44.583</v>
+        <v>-17.012</v>
       </c>
       <c r="Q68" s="1" t="n"/>
       <c r="R68" s="1" t="n"/>
       <c r="S68" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T68" s="1" t="n">
         <v>4</v>
       </c>
       <c r="U68" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V68" s="1" t="n">
         <v>0</v>
@@ -5093,7 +5097,7 @@
         <v>24.31</v>
       </c>
       <c r="Y68" s="1" t="n">
-        <v>98.167</v>
+        <v>24.31</v>
       </c>
       <c r="Z68" s="1" t="n"/>
       <c r="AA68" s="1" t="n"/>
@@ -5101,48 +5105,48 @@
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>4</v>
+        <v>-5.65</v>
       </c>
       <c r="E69" s="1" t="n">
+        <v>-5.212</v>
+      </c>
+      <c r="F69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F69" s="1" t="n">
-        <v>12.45</v>
-      </c>
       <c r="G69" s="1" t="n">
-        <v>8.6</v>
+        <v>0.6</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>-2.225</v>
+        <v>-8.15</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>10.225</v>
+        <v>-3.15</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>9.300000000000001</v>
+        <v>-4.912</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>0.7000000000000002</v>
+        <v>-5.512</v>
       </c>
       <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n">
-        <v>-5.6</v>
+        <v>0</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>-0.011</v>
+        <v>-11.8</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>9.6</v>
+        <v>-5.65</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>5.011</v>
+        <v>6.588000000000001</v>
       </c>
       <c r="Q69" s="1" t="n"/>
       <c r="R69" s="1" t="n"/>
@@ -5153,7 +5157,7 @@
         <v>4</v>
       </c>
       <c r="U69" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V69" s="1" t="n">
         <v>0</v>
@@ -5165,69 +5169,67 @@
         <v>24.31</v>
       </c>
       <c r="Y69" s="1" t="n">
-        <v>7.44</v>
+        <v>24.31</v>
       </c>
       <c r="Z69" s="1" t="n"/>
       <c r="AA69" s="1" t="n"/>
-      <c r="AB69" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="AB69" s="1" t="s"/>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>-3.55</v>
+        <v>3.651</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>12.45</v>
+        <v>0.55</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>8.6</v>
+        <v>1.25</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>-2.225</v>
+        <v>-7.275</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>10.225</v>
+        <v>-6.725</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>0.75</v>
+        <v>4.276</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>-7.85</v>
+        <v>3.026</v>
       </c>
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n">
-        <v>5.579</v>
+        <v>-12.008</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>0.003</v>
+        <v>48.234</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>-1.579</v>
+        <v>5.007999999999999</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>-3.553</v>
+        <v>-44.583</v>
       </c>
       <c r="Q70" s="1" t="n"/>
       <c r="R70" s="1" t="n"/>
       <c r="S70" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T70" s="1" t="n">
         <v>4</v>
       </c>
       <c r="U70" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V70" s="1" t="n">
         <v>0</v>
@@ -5239,69 +5241,67 @@
         <v>24.31</v>
       </c>
       <c r="Y70" s="1" t="n">
-        <v>7.44</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="1" t="n"/>
       <c r="AA70" s="1" t="n"/>
-      <c r="AB70" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="AB70" s="1" t="s"/>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>-8.074</v>
+        <v>4</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1</v>
+        <v>12.45</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>26</v>
+        <v>8.6</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>-8.574</v>
+        <v>-2.225</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>-7.574</v>
+        <v>10.225</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>13</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>-13</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="L71" s="1" t="n"/>
       <c r="M71" s="1" t="n">
-        <v>-11.635</v>
+        <v>-5.6</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>-0.064</v>
+        <v>-0.011</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>3.561</v>
+        <v>9.6</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>0.064</v>
+        <v>5.011</v>
       </c>
       <c r="Q71" s="1" t="n"/>
       <c r="R71" s="1" t="n"/>
       <c r="S71" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T71" s="1" t="n">
         <v>4</v>
       </c>
       <c r="U71" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="V71" s="1" t="n">
         <v>0</v>
@@ -5313,67 +5313,69 @@
         <v>24.31</v>
       </c>
       <c r="Y71" s="1" t="n">
-        <v>24.31</v>
+        <v>8</v>
       </c>
       <c r="Z71" s="1" t="n"/>
       <c r="AA71" s="1" t="n"/>
-      <c r="AB71" s="1" t="s"/>
+      <c r="AB71" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>8.000999999999999</v>
+        <v>4</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>0</v>
+        <v>-3.55</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1.1</v>
+        <v>12.45</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>26</v>
+        <v>8.6</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>7.451</v>
+        <v>-2.225</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>8.551</v>
+        <v>10.225</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>13</v>
+        <v>0.75</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>-13</v>
+        <v>-7.85</v>
       </c>
       <c r="L72" s="1" t="n"/>
       <c r="M72" s="1" t="n">
-        <v>11.636</v>
+        <v>5.579</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>0.065</v>
+        <v>0.003</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>-3.635</v>
+        <v>-1.579</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>-0.065</v>
+        <v>-3.553</v>
       </c>
       <c r="Q72" s="1" t="n"/>
       <c r="R72" s="1" t="n"/>
       <c r="S72" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T72" s="1" t="n">
         <v>4</v>
       </c>
       <c r="U72" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="V72" s="1" t="n">
         <v>0</v>
@@ -5385,56 +5387,58 @@
         <v>24.31</v>
       </c>
       <c r="Y72" s="1" t="n">
-        <v>24.31</v>
+        <v>8</v>
       </c>
       <c r="Z72" s="1" t="n"/>
       <c r="AA72" s="1" t="n"/>
-      <c r="AB72" s="1" t="s"/>
+      <c r="AB72" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>2.674</v>
+        <v>-8.074</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>4.291</v>
+        <v>0</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>8.279999999999999</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>0.403</v>
+        <v>26</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>-1.466</v>
+        <v>-8.574</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>6.814</v>
+        <v>-7.574</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>4.492500000000001</v>
+        <v>13</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>4.0895</v>
+        <v>-13</v>
       </c>
       <c r="L73" s="1" t="n"/>
       <c r="M73" s="1" t="n">
-        <v>6.908</v>
+        <v>-11.635</v>
       </c>
       <c r="N73" s="1" t="n">
-        <v>-0</v>
+        <v>-0.064</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>-4.234</v>
+        <v>3.561</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>4.291</v>
+        <v>0.064</v>
       </c>
       <c r="Q73" s="1" t="n"/>
       <c r="R73" s="1" t="n"/>
@@ -5445,7 +5449,7 @@
         <v>4</v>
       </c>
       <c r="U73" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V73" s="1" t="n">
         <v>0</v>
@@ -5457,58 +5461,56 @@
         <v>24.31</v>
       </c>
       <c r="Y73" s="1" t="n">
-        <v>23.6</v>
+        <v>24.31</v>
       </c>
       <c r="Z73" s="1" t="n"/>
       <c r="AA73" s="1" t="n"/>
-      <c r="AB73" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="AB73" s="1" t="s"/>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>-2.79</v>
+        <v>8.000999999999999</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>7.278</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>-6.79</v>
+        <v>7.451</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>1.21</v>
+        <v>8.551</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>7.778</v>
+        <v>13</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>6.778</v>
+        <v>-13</v>
       </c>
       <c r="L74" s="1" t="n"/>
       <c r="M74" s="1" t="n">
-        <v>-8.834</v>
+        <v>11.636</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>48.714</v>
+        <v>0.065</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>6.044</v>
+        <v>-3.635</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>-41.436</v>
+        <v>-0.065</v>
       </c>
       <c r="Q74" s="1" t="n"/>
       <c r="R74" s="1" t="n"/>
@@ -5519,7 +5521,7 @@
         <v>4</v>
       </c>
       <c r="U74" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V74" s="1" t="n">
         <v>0</v>
@@ -5531,7 +5533,7 @@
         <v>24.31</v>
       </c>
       <c r="Y74" s="1" t="n">
-        <v>98.167</v>
+        <v>24.31</v>
       </c>
       <c r="Z74" s="1" t="n"/>
       <c r="AA74" s="1" t="n"/>
@@ -5539,48 +5541,48 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>-3.099</v>
+        <v>2.674</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>8.5</v>
+        <v>4.291</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>6.8</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>0.9</v>
+        <v>0.403</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>-6.499000000000001</v>
+        <v>-1.466</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>0.3009999999999997</v>
+        <v>6.814</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>8.949999999999999</v>
+        <v>4.492500000000001</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>4.0895</v>
       </c>
       <c r="L75" s="1" t="n"/>
       <c r="M75" s="1" t="n">
-        <v>-3.176</v>
+        <v>6.908</v>
       </c>
       <c r="N75" s="1" t="n">
-        <v>48.844</v>
+        <v>-0</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>0.07699999999999996</v>
+        <v>-4.234</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>-40.344</v>
+        <v>4.291</v>
       </c>
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
@@ -5591,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="U75" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V75" s="1" t="n">
         <v>0</v>
@@ -5603,25 +5605,27 @@
         <v>24.31</v>
       </c>
       <c r="Y75" s="1" t="n">
-        <v>98.167</v>
+        <v>12</v>
       </c>
       <c r="Z75" s="1" t="n"/>
       <c r="AA75" s="1" t="n"/>
-      <c r="AB75" s="1" t="s"/>
+      <c r="AB75" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>3.147</v>
+        <v>-2.79</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>6.086</v>
+        <v>7.278</v>
       </c>
       <c r="F76" s="1" t="n">
         <v>8</v>
@@ -5630,29 +5634,29 @@
         <v>1</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>-0.8530000000000002</v>
+        <v>-6.79</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>7.147</v>
+        <v>1.21</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>6.586</v>
+        <v>7.778</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>5.586</v>
+        <v>6.778</v>
       </c>
       <c r="L76" s="1" t="n"/>
       <c r="M76" s="1" t="n">
-        <v>8.834</v>
+        <v>-8.834</v>
       </c>
       <c r="N76" s="1" t="n">
         <v>48.714</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>-5.686999999999999</v>
+        <v>6.044</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>-42.628</v>
+        <v>-41.436</v>
       </c>
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
@@ -5675,7 +5679,7 @@
         <v>24.31</v>
       </c>
       <c r="Y76" s="1" t="n">
-        <v>98.167</v>
+        <v>0</v>
       </c>
       <c r="Z76" s="1" t="n"/>
       <c r="AA76" s="1" t="n"/>
@@ -5683,14 +5687,14 @@
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>3.701</v>
+        <v>-3.099</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>8.5</v>
@@ -5702,10 +5706,10 @@
         <v>0.9</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>0.3010000000000002</v>
+        <v>-6.499000000000001</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>7.101</v>
+        <v>0.3009999999999997</v>
       </c>
       <c r="J77" s="1" t="n">
         <v>8.949999999999999</v>
@@ -5715,13 +5719,13 @@
       </c>
       <c r="L77" s="1" t="n"/>
       <c r="M77" s="1" t="n">
-        <v>3.176</v>
+        <v>-3.176</v>
       </c>
       <c r="N77" s="1" t="n">
         <v>48.844</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>0.5249999999999999</v>
+        <v>0.07699999999999996</v>
       </c>
       <c r="P77" s="1" t="n">
         <v>-40.344</v>
@@ -5747,7 +5751,7 @@
         <v>24.31</v>
       </c>
       <c r="Y77" s="1" t="n">
-        <v>98.167</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="1" t="n"/>
       <c r="AA77" s="1" t="n"/>
@@ -5755,48 +5759,48 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>-7.274</v>
+        <v>3.147</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>9.981999999999999</v>
+        <v>6.086</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>-7.574</v>
+        <v>-0.8530000000000002</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>-6.974</v>
+        <v>7.147</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>12.782</v>
+        <v>6.586</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>7.181999999999999</v>
+        <v>5.586</v>
       </c>
       <c r="L78" s="1" t="n"/>
       <c r="M78" s="1" t="n">
-        <v>0</v>
+        <v>8.834</v>
       </c>
       <c r="N78" s="1" t="n">
-        <v>0</v>
+        <v>48.714</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>-7.274</v>
+        <v>-5.686999999999999</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>9.981999999999999</v>
+        <v>-42.628</v>
       </c>
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
@@ -5804,22 +5808,22 @@
         <v>32</v>
       </c>
       <c r="T78" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V78" s="1" t="n">
-        <v>-0.015</v>
+        <v>0</v>
       </c>
       <c r="W78" s="1" t="n">
-        <v>51.891</v>
+        <v>0</v>
       </c>
       <c r="X78" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>24.31</v>
       </c>
       <c r="Y78" s="1" t="n">
-        <v>3.042</v>
+        <v>0</v>
       </c>
       <c r="Z78" s="1" t="n"/>
       <c r="AA78" s="1" t="n"/>
@@ -5827,59 +5831,59 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>-3.22</v>
+        <v>3.701</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>0.5600000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1.95</v>
+        <v>0.9</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>-3.5</v>
+        <v>0.3010000000000002</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>-2.94</v>
+        <v>7.101</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>3.37495</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>1.42495</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n">
-        <v>-11.79</v>
+        <v>3.176</v>
       </c>
       <c r="N79" s="1" t="n">
-        <v>-0.608</v>
+        <v>48.844</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>8.569999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>3.008</v>
+        <v>-40.344</v>
       </c>
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
       <c r="S79" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T79" s="1" t="n">
         <v>4</v>
       </c>
       <c r="U79" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V79" s="1" t="n">
         <v>0</v>
@@ -5891,7 +5895,7 @@
         <v>24.31</v>
       </c>
       <c r="Y79" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="1" t="n"/>
       <c r="AA79" s="1" t="n"/>
@@ -5899,71 +5903,71 @@
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>-2.558</v>
+        <v>-7.274</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>2.4</v>
+        <v>9.981999999999999</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1.95</v>
+        <v>5.6</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>-2.838</v>
+        <v>-7.574</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>-2.278</v>
+        <v>-6.974</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>3.375</v>
+        <v>12.782</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>1.425</v>
+        <v>7.181999999999999</v>
       </c>
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n">
-        <v>11.785</v>
+        <v>0</v>
       </c>
       <c r="N80" s="1" t="n">
-        <v>0.322</v>
+        <v>0</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>-14.343</v>
+        <v>-7.274</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>2.078</v>
+        <v>9.981999999999999</v>
       </c>
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
       <c r="S80" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T80" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U80" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V80" s="1" t="n">
-        <v>0</v>
+        <v>-0.015</v>
       </c>
       <c r="W80" s="1" t="n">
-        <v>0</v>
+        <v>51.891</v>
       </c>
       <c r="X80" s="1" t="n">
-        <v>24.31</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y80" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="1" t="n"/>
       <c r="AA80" s="1" t="n"/>
@@ -5971,71 +5975,71 @@
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>-2.442</v>
+        <v>-3.22</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>12.021</v>
+        <v>2.4</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>7.84</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>0.7</v>
+        <v>1.95</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>-6.362</v>
+        <v>-3.5</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>1.478</v>
+        <v>-2.94</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>12.371</v>
+        <v>3.37495</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>11.671</v>
+        <v>1.42495</v>
       </c>
       <c r="L81" s="1" t="n"/>
       <c r="M81" s="1" t="n">
-        <v>0</v>
+        <v>-11.79</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>0</v>
+        <v>-0.608</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>-2.442</v>
+        <v>8.569999999999999</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>12.021</v>
+        <v>3.008</v>
       </c>
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
       <c r="S81" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T81" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U81" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V81" s="1" t="n">
-        <v>32.5685</v>
+        <v>0</v>
       </c>
       <c r="W81" s="1" t="n">
-        <v>49.067</v>
+        <v>0</v>
       </c>
       <c r="X81" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Y81" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Z81" s="1" t="n"/>
       <c r="AA81" s="1" t="n"/>
@@ -6043,71 +6047,71 @@
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>-2.442</v>
+        <v>-2.558</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>12.021</v>
+        <v>2.4</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>7.84</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>0.7</v>
+        <v>1.95</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>-6.362</v>
+        <v>-2.838</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>1.478</v>
+        <v>-2.278</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>12.371</v>
+        <v>3.375</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>11.671</v>
+        <v>1.425</v>
       </c>
       <c r="L82" s="1" t="n"/>
       <c r="M82" s="1" t="n">
-        <v>0</v>
+        <v>11.785</v>
       </c>
       <c r="N82" s="1" t="n">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>-2.442</v>
+        <v>-14.343</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>12.021</v>
+        <v>2.078</v>
       </c>
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
       <c r="S82" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T82" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U82" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V82" s="1" t="n">
-        <v>-0.063</v>
+        <v>0</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>49.067</v>
+        <v>0</v>
       </c>
       <c r="X82" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>24.31</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>0.7</v>
+        <v>24.31</v>
       </c>
       <c r="Z82" s="1" t="n"/>
       <c r="AA82" s="1" t="n"/>
@@ -6115,11 +6119,11 @@
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>-2.442</v>
@@ -6170,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="V83" s="1" t="n">
-        <v>-32.572</v>
+        <v>32.5685</v>
       </c>
       <c r="W83" s="1" t="n">
         <v>49.067</v>
@@ -6187,71 +6191,71 @@
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>-1.4</v>
+        <v>-2.442</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>-8.4</v>
+        <v>12.021</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>18.065</v>
+        <v>7.84</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>-10.4325</v>
+        <v>-6.362</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>7.6325</v>
+        <v>1.478</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>-8.050000000000001</v>
+        <v>12.371</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>-8.75</v>
+        <v>11.671</v>
       </c>
       <c r="L84" s="1" t="n"/>
       <c r="M84" s="1" t="n">
-        <v>-4.483</v>
+        <v>0</v>
       </c>
       <c r="N84" s="1" t="n">
-        <v>11.876</v>
+        <v>0</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>3.083</v>
+        <v>-2.442</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>-20.276</v>
+        <v>12.021</v>
       </c>
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
       <c r="S84" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T84" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U84" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V84" s="1" t="n">
-        <v>0</v>
+        <v>-0.063</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>0</v>
+        <v>49.067</v>
       </c>
       <c r="X84" s="1" t="n">
-        <v>24.31</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y84" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z84" s="1" t="n"/>
       <c r="AA84" s="1" t="n"/>
@@ -6259,71 +6263,71 @@
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>1.4</v>
+        <v>-2.442</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>-9.6</v>
+        <v>12.021</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>18.065</v>
+        <v>7.84</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>-7.6325</v>
+        <v>-6.362</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>10.4325</v>
+        <v>1.478</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>-9.25</v>
+        <v>12.371</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>11.671</v>
       </c>
       <c r="L85" s="1" t="n"/>
       <c r="M85" s="1" t="n">
-        <v>4.483</v>
+        <v>0</v>
       </c>
       <c r="N85" s="1" t="n">
-        <v>-11.867</v>
+        <v>0</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>-3.083</v>
+        <v>-2.442</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>2.267000000000001</v>
+        <v>12.021</v>
       </c>
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
       <c r="S85" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T85" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U85" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V85" s="1" t="n">
-        <v>0</v>
+        <v>-32.572</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>0</v>
+        <v>49.067</v>
       </c>
       <c r="X85" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Y85" s="1" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="Z85" s="1" t="n"/>
       <c r="AA85" s="1" t="n"/>
@@ -6331,48 +6335,48 @@
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>-5.65</v>
+        <v>-1.4</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>-5.812</v>
+        <v>-8.4</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>5</v>
+        <v>18.065</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>-8.15</v>
+        <v>-10.4325</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>-3.15</v>
+        <v>7.6325</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>-5.512</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>-6.112</v>
+        <v>-8.75</v>
       </c>
       <c r="L86" s="1" t="n"/>
       <c r="M86" s="1" t="n">
-        <v>0</v>
+        <v>-4.483</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>11.8</v>
+        <v>11.876</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>-5.65</v>
+        <v>3.083</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>-17.612</v>
+        <v>-20.276</v>
       </c>
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
@@ -6403,48 +6407,48 @@
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>-5.65</v>
+        <v>1.4</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>-5.812</v>
+        <v>-9.6</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>5</v>
+        <v>18.065</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>-8.15</v>
+        <v>-7.6325</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>-3.15</v>
+        <v>10.4325</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>-5.512</v>
+        <v>-9.25</v>
       </c>
       <c r="K87" s="1" t="n">
-        <v>-6.112</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L87" s="1" t="n"/>
       <c r="M87" s="1" t="n">
-        <v>0</v>
+        <v>4.483</v>
       </c>
       <c r="N87" s="1" t="n">
-        <v>-11.8</v>
+        <v>-11.867</v>
       </c>
       <c r="O87" s="1" t="n">
-        <v>-5.65</v>
+        <v>-3.083</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>5.988</v>
+        <v>2.267000000000001</v>
       </c>
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
@@ -6485,25 +6489,25 @@
         <v>-5.65</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>-3.412</v>
+        <v>0.194</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>5</v>
+        <v>6.46</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>-8.15</v>
+        <v>-8.880000000000001</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>-3.15</v>
+        <v>-2.42</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>-3.112</v>
+        <v>0.494</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>-3.712</v>
+        <v>-0.106</v>
       </c>
       <c r="L88" s="1" t="n"/>
       <c r="M88" s="1" t="n">
@@ -6516,7 +6520,7 @@
         <v>-5.65</v>
       </c>
       <c r="P88" s="1" t="n">
-        <v>-15.212</v>
+        <v>-11.606</v>
       </c>
       <c r="Q88" s="1" t="n"/>
       <c r="R88" s="1" t="n"/>
@@ -6557,25 +6561,25 @@
         <v>-5.65</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>-3.412</v>
+        <v>0.194</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>5</v>
+        <v>6.46</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>-8.15</v>
+        <v>-8.880000000000001</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>-3.15</v>
+        <v>-2.42</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>-3.112</v>
+        <v>0.494</v>
       </c>
       <c r="K89" s="1" t="n">
-        <v>-3.712</v>
+        <v>-0.106</v>
       </c>
       <c r="L89" s="1" t="n"/>
       <c r="M89" s="1" t="n">
@@ -6588,7 +6592,7 @@
         <v>-5.65</v>
       </c>
       <c r="P89" s="1" t="n">
-        <v>8.388000000000002</v>
+        <v>11.994</v>
       </c>
       <c r="Q89" s="1" t="n"/>
       <c r="R89" s="1" t="n"/>
@@ -6626,41 +6630,41 @@
         <v>99</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>6</v>
+        <v>-5.65</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>10.7</v>
+        <v>-3.412</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1.15</v>
+        <v>0.6</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1.7</v>
+        <v>-8.15</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>10.3</v>
+        <v>-3.15</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>11.275</v>
+        <v>-3.112</v>
       </c>
       <c r="K90" s="1" t="n">
-        <v>10.125</v>
+        <v>-3.712</v>
       </c>
       <c r="L90" s="1" t="n"/>
       <c r="M90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N90" s="1" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="O90" s="1" t="n">
-        <v>6</v>
+        <v>-5.65</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>10.7</v>
+        <v>-15.212</v>
       </c>
       <c r="Q90" s="1" t="n"/>
       <c r="R90" s="1" t="n"/>
@@ -6668,22 +6672,22 @@
         <v>34</v>
       </c>
       <c r="T90" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U90" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V90" s="1" t="n">
-        <v>-47.55</v>
+        <v>0</v>
       </c>
       <c r="W90" s="1" t="n">
-        <v>53.35</v>
+        <v>0</v>
       </c>
       <c r="X90" s="1" t="n">
-        <v>8.6</v>
+        <v>24.31</v>
       </c>
       <c r="Y90" s="1" t="n">
-        <v>0.74</v>
+        <v>24.31</v>
       </c>
       <c r="Z90" s="1" t="n"/>
       <c r="AA90" s="1" t="n"/>
@@ -6698,41 +6702,41 @@
         <v>99</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>6</v>
+        <v>-5.65</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>10.7</v>
+        <v>-3.412</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1.15</v>
+        <v>0.6</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1.7</v>
+        <v>-8.15</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>10.3</v>
+        <v>-3.15</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>11.275</v>
+        <v>-3.112</v>
       </c>
       <c r="K91" s="1" t="n">
-        <v>10.125</v>
+        <v>-3.712</v>
       </c>
       <c r="L91" s="1" t="n"/>
       <c r="M91" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N91" s="1" t="n">
-        <v>0</v>
+        <v>-11.8</v>
       </c>
       <c r="O91" s="1" t="n">
-        <v>6</v>
+        <v>-5.65</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>10.7</v>
+        <v>8.388000000000002</v>
       </c>
       <c r="Q91" s="1" t="n"/>
       <c r="R91" s="1" t="n"/>
@@ -6740,22 +6744,22 @@
         <v>34</v>
       </c>
       <c r="T91" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U91" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V91" s="1" t="n">
-        <v>-47.55</v>
+        <v>0</v>
       </c>
       <c r="W91" s="1" t="n">
-        <v>55.94</v>
+        <v>0</v>
       </c>
       <c r="X91" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Y91" s="1" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="Z91" s="1" t="n"/>
       <c r="AA91" s="1" t="n"/>
@@ -6763,11 +6767,11 @@
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1" t="n"/>
       <c r="C92" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>6</v>
@@ -6815,19 +6819,19 @@
         <v>1</v>
       </c>
       <c r="U92" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V92" s="1" t="n">
         <v>-47.55</v>
       </c>
       <c r="W92" s="1" t="n">
-        <v>-51.5</v>
+        <v>53.35</v>
       </c>
       <c r="X92" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y92" s="1" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="Z92" s="1" t="n"/>
       <c r="AA92" s="1" t="n"/>
@@ -6835,11 +6839,11 @@
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" s="1" t="n"/>
       <c r="C93" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>6</v>
@@ -6887,19 +6891,19 @@
         <v>1</v>
       </c>
       <c r="U93" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V93" s="1" t="n">
         <v>-47.55</v>
       </c>
       <c r="W93" s="1" t="n">
-        <v>-53.72</v>
+        <v>55.94</v>
       </c>
       <c r="X93" s="1" t="n">
-        <v>8.19</v>
+        <v>0</v>
       </c>
       <c r="Y93" s="1" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="Z93" s="1" t="n"/>
       <c r="AA93" s="1" t="n"/>
@@ -6907,35 +6911,35 @@
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1" t="n"/>
       <c r="C94" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>-6.3</v>
+        <v>6</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>6.5</v>
+        <v>10.7</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>-7.25</v>
+        <v>1.7</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>-5.35</v>
+        <v>10.3</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>7.7</v>
+        <v>11.275</v>
       </c>
       <c r="K94" s="1" t="n">
-        <v>5.3</v>
+        <v>10.125</v>
       </c>
       <c r="L94" s="1" t="n"/>
       <c r="M94" s="1" t="n">
@@ -6945,10 +6949,10 @@
         <v>0</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>-6.3</v>
+        <v>6</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>6.5</v>
+        <v>10.7</v>
       </c>
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
@@ -6956,22 +6960,22 @@
         <v>34</v>
       </c>
       <c r="T94" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U94" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="V94" s="1" t="n">
-        <v>53.88</v>
+        <v>-47.55</v>
       </c>
       <c r="W94" s="1" t="n">
-        <v>0</v>
+        <v>-51.5</v>
       </c>
       <c r="X94" s="1" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="1" t="n"/>
       <c r="AA94" s="1" t="n"/>
@@ -6979,35 +6983,35 @@
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1" t="n"/>
       <c r="C95" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>-6.3</v>
+        <v>6</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>6.5</v>
+        <v>10.7</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>-7.25</v>
+        <v>1.7</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>-5.35</v>
+        <v>10.3</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>7.7</v>
+        <v>11.275</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>5.3</v>
+        <v>10.125</v>
       </c>
       <c r="L95" s="1" t="n"/>
       <c r="M95" s="1" t="n">
@@ -7017,10 +7021,10 @@
         <v>0</v>
       </c>
       <c r="O95" s="1" t="n">
-        <v>-6.3</v>
+        <v>6</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>6.5</v>
+        <v>10.7</v>
       </c>
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
@@ -7028,22 +7032,22 @@
         <v>34</v>
       </c>
       <c r="T95" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U95" s="1" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="V95" s="1" t="n">
-        <v>-53.88</v>
+        <v>-47.55</v>
       </c>
       <c r="W95" s="1" t="n">
-        <v>0</v>
+        <v>-53.72</v>
       </c>
       <c r="X95" s="1" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y95" s="1" t="n">
-        <v>2</v>
+        <v>0.74</v>
       </c>
       <c r="Z95" s="1" t="n"/>
       <c r="AA95" s="1" t="n"/>
@@ -7051,48 +7055,48 @@
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="1" t="n"/>
       <c r="C96" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>-5.65</v>
+        <v>-6.3</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>0.194</v>
+        <v>6.5</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>6.46</v>
+        <v>1.9</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>-8.880000000000001</v>
+        <v>-7.25</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>-2.42</v>
+        <v>-5.35</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>0.494</v>
+        <v>7.7</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>-0.106</v>
+        <v>5.3</v>
       </c>
       <c r="L96" s="1" t="n"/>
       <c r="M96" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N96" s="1" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="O96" s="1" t="n">
-        <v>-5.65</v>
+        <v>-6.3</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>-11.606</v>
+        <v>6.5</v>
       </c>
       <c r="Q96" s="1" t="n"/>
       <c r="R96" s="1" t="n"/>
@@ -7100,22 +7104,22 @@
         <v>34</v>
       </c>
       <c r="T96" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U96" s="1" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="V96" s="1" t="n">
-        <v>0</v>
+        <v>53.88</v>
       </c>
       <c r="W96" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X96" s="1" t="n">
-        <v>24.31</v>
+        <v>1.5</v>
       </c>
       <c r="Y96" s="1" t="n">
-        <v>24.31</v>
+        <v>2</v>
       </c>
       <c r="Z96" s="1" t="n"/>
       <c r="AA96" s="1" t="n"/>
@@ -7123,48 +7127,48 @@
     </row>
     <row r="97" spans="1:28">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97" s="1" t="n"/>
       <c r="C97" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>-5.65</v>
+        <v>-6.3</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>0.194</v>
+        <v>6.5</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>6.46</v>
+        <v>1.9</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>-8.880000000000001</v>
+        <v>-7.25</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>-2.42</v>
+        <v>-5.35</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>0.494</v>
+        <v>7.7</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>-0.106</v>
+        <v>5.3</v>
       </c>
       <c r="L97" s="1" t="n"/>
       <c r="M97" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N97" s="1" t="n">
-        <v>-11.8</v>
+        <v>0</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>-5.65</v>
+        <v>-6.3</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>11.994</v>
+        <v>6.5</v>
       </c>
       <c r="Q97" s="1" t="n"/>
       <c r="R97" s="1" t="n"/>
@@ -7172,22 +7176,22 @@
         <v>34</v>
       </c>
       <c r="T97" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U97" s="1" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="V97" s="1" t="n">
-        <v>0</v>
+        <v>-53.88</v>
       </c>
       <c r="W97" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X97" s="1" t="n">
-        <v>24.31</v>
+        <v>1.5</v>
       </c>
       <c r="Y97" s="1" t="n">
-        <v>24.31</v>
+        <v>2</v>
       </c>
       <c r="Z97" s="1" t="n"/>
       <c r="AA97" s="1" t="n"/>
@@ -7478,15 +7482,15 @@
     <col customWidth="1" max="5" min="5" width="15"/>
     <col customWidth="1" max="6" min="6" width="6"/>
     <col customWidth="1" max="7" min="7" width="12"/>
-    <col customWidth="1" max="8" min="8" width="7"/>
+    <col customWidth="1" max="8" min="8" width="6"/>
     <col customWidth="1" max="9" min="9" width="6"/>
     <col customWidth="1" max="10" min="10" width="10"/>
-    <col customWidth="1" max="11" min="11" width="21"/>
+    <col customWidth="1" max="11" min="11" width="11"/>
     <col customWidth="1" max="12" min="12" width="9"/>
     <col customWidth="1" max="13" min="13" width="10"/>
     <col customWidth="1" max="14" min="14" width="6"/>
     <col customWidth="1" max="15" min="15" width="10"/>
-    <col customWidth="1" max="16" min="16" width="21"/>
+    <col customWidth="1" max="16" min="16" width="11"/>
     <col customWidth="1" max="17" min="17" width="9"/>
     <col customWidth="1" max="18" min="18" width="10"/>
     <col customWidth="1" max="19" min="19" width="6"/>
@@ -7611,10 +7615,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>8</v>
@@ -7629,36 +7633,36 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>22.644</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>23.6</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="n"/>
       <c r="J3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>-79.25399999999999</v>
+        <v>-42</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>-47.787</v>
+        <v>-36.213</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>31.467</v>
+        <v>5.787</v>
       </c>
       <c r="N3" s="1" t="n"/>
       <c r="O3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>82.60000000000001</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>48.265</v>
+        <v>35.735</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-34.335</v>
+        <v>-6.265</v>
       </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="n"/>
@@ -7684,26 +7688,26 @@
         <v>2</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>-56.61</v>
+        <v>-30</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>-25.143</v>
+        <v>-34.857</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>31.467</v>
+        <v>-4.857</v>
       </c>
       <c r="N4" s="1" t="n"/>
       <c r="O4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>24.665</v>
+        <v>35.335</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-34.335</v>
+        <v>5.335</v>
       </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="n"/>
@@ -7729,26 +7733,26 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>-33.96599999999999</v>
+        <v>-18</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>-23.477</v>
+        <v>-12.523</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>10.489</v>
+        <v>5.477</v>
       </c>
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>35.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>23.955</v>
+        <v>12.045</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-11.445</v>
+        <v>-5.955</v>
       </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="n"/>
@@ -7774,26 +7778,26 @@
         <v>4</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>-11.322</v>
+        <v>-6</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>-0.833</v>
+        <v>-11.167</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>10.489</v>
+        <v>-5.167</v>
       </c>
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>11.8</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>0.355</v>
+        <v>11.645</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-11.445</v>
+        <v>5.645</v>
       </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1" t="n"/>
@@ -7819,26 +7823,26 @@
         <v>5</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>11.322</v>
+        <v>6</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0.833</v>
+        <v>11.167</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>-10.489</v>
+        <v>5.167</v>
       </c>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>-11.8</v>
+        <v>-6</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>-0.355</v>
+        <v>-11.645</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>11.445</v>
+        <v>-5.645</v>
       </c>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1" t="n"/>
@@ -7864,26 +7868,26 @@
         <v>6</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>33.96599999999999</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>23.477</v>
+        <v>12.523</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>-10.489</v>
+        <v>-5.477</v>
       </c>
       <c r="N8" s="1" t="n"/>
       <c r="O8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>-35.40000000000001</v>
+        <v>-18</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>-23.955</v>
+        <v>-12.045</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>11.445</v>
+        <v>5.955</v>
       </c>
       <c r="S8" s="1" t="n"/>
       <c r="T8" s="1" t="n"/>
@@ -7909,26 +7913,26 @@
         <v>7</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>56.61</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>25.143</v>
+        <v>34.857</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>-31.467</v>
+        <v>4.857</v>
       </c>
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>-59</v>
+        <v>-30</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>-24.665</v>
+        <v>-35.335</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>34.335</v>
+        <v>-5.335</v>
       </c>
       <c r="S9" s="1" t="n"/>
       <c r="T9" s="1" t="n"/>
@@ -7954,26 +7958,26 @@
         <v>8</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>79.25399999999999</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>47.787</v>
+        <v>36.213</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>-31.467</v>
+        <v>-5.787</v>
       </c>
       <c r="N10" s="1" t="n"/>
       <c r="O10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>-82.60000000000001</v>
+        <v>-42</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>-48.265</v>
+        <v>-35.735</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>34.335</v>
+        <v>6.265</v>
       </c>
       <c r="S10" s="1" t="n"/>
       <c r="T10" s="1" t="n"/>
@@ -8045,10 +8049,10 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>8</v>
@@ -8063,36 +8067,36 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>11.16</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>11.16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>-39.06</v>
+        <v>-42</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>-42.045</v>
+        <v>-41.955</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>-2.985</v>
+        <v>0.045</v>
       </c>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>39.06</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>42.045</v>
+        <v>41.955</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>2.985</v>
+        <v>-0.045</v>
       </c>
       <c r="S13" s="1" t="n"/>
       <c r="T13" s="1" t="n"/>
@@ -8118,26 +8122,26 @@
         <v>2</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>-27.9</v>
+        <v>-30</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>-30.885</v>
+        <v>-29.115</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>-2.985</v>
+        <v>0.885</v>
       </c>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>27.9</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>30.885</v>
+        <v>29.115</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>2.985</v>
+        <v>-0.885</v>
       </c>
       <c r="S14" s="1" t="n"/>
       <c r="T14" s="1" t="n"/>
@@ -8163,26 +8167,26 @@
         <v>3</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-16.74</v>
+        <v>-18</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-17.735</v>
+        <v>-18.265</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>-0.995</v>
+        <v>-0.265</v>
       </c>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>16.74</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>17.735</v>
+        <v>18.265</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.995</v>
+        <v>0.265</v>
       </c>
       <c r="S15" s="1" t="n"/>
       <c r="T15" s="1" t="n"/>
@@ -8208,26 +8212,26 @@
         <v>4</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>-5.58</v>
+        <v>-6</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>-6.575</v>
+        <v>-5.425</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-0.995</v>
+        <v>0.575</v>
       </c>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n">
         <v>4</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>5.58</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>6.575</v>
+        <v>5.425</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0.995</v>
+        <v>-0.575</v>
       </c>
       <c r="S16" s="1" t="n"/>
       <c r="T16" s="1" t="n"/>
@@ -8253,26 +8257,26 @@
         <v>5</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>5.58</v>
+        <v>6</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>6.575</v>
+        <v>5.425</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>0.995</v>
+        <v>-0.575</v>
       </c>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>-5.58</v>
+        <v>-6</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>-6.575</v>
+        <v>-5.425</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.995</v>
+        <v>0.575</v>
       </c>
       <c r="S17" s="1" t="n"/>
       <c r="T17" s="1" t="n"/>
@@ -8298,26 +8302,26 @@
         <v>6</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>16.74</v>
+        <v>18</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>17.735</v>
+        <v>18.265</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>0.995</v>
+        <v>0.265</v>
       </c>
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n">
         <v>6</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>-16.74</v>
+        <v>-18</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>-17.735</v>
+        <v>-18.265</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.995</v>
+        <v>-0.265</v>
       </c>
       <c r="S18" s="1" t="n"/>
       <c r="T18" s="1" t="n"/>
@@ -8343,26 +8347,26 @@
         <v>7</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>27.9</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>30.885</v>
+        <v>29.115</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>2.985</v>
+        <v>-0.885</v>
       </c>
       <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>-27.9</v>
+        <v>-30</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>-30.885</v>
+        <v>-29.115</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-2.985</v>
+        <v>0.885</v>
       </c>
       <c r="S19" s="1" t="n"/>
       <c r="T19" s="1" t="n"/>
@@ -8388,26 +8392,26 @@
         <v>8</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>39.06</v>
+        <v>42</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>42.045</v>
+        <v>41.955</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>2.985</v>
+        <v>-0.045</v>
       </c>
       <c r="N20" s="1" t="n"/>
       <c r="O20" s="1" t="n">
         <v>8</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>-39.06</v>
+        <v>-42</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>-42.045</v>
+        <v>-41.955</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-2.985</v>
+        <v>0.045</v>
       </c>
       <c r="S20" s="1" t="n"/>
       <c r="T20" s="1" t="n"/>
@@ -8479,10 +8483,10 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>8</v>
@@ -8497,36 +8501,36 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>22.644</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>23.6</v>
+        <v>12</v>
       </c>
       <c r="I23" s="1" t="n"/>
       <c r="J23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>-79.25399999999999</v>
+        <v>-42</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>-47.787</v>
+        <v>-36.213</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>31.467</v>
+        <v>5.787</v>
       </c>
       <c r="N23" s="1" t="n"/>
       <c r="O23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>82.60000000000001</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>48.265</v>
+        <v>35.735</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-34.335</v>
+        <v>-6.265</v>
       </c>
       <c r="S23" s="1" t="n"/>
       <c r="T23" s="1" t="n"/>
@@ -8552,26 +8556,26 @@
         <v>2</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>-56.61</v>
+        <v>-30</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>-25.143</v>
+        <v>-34.857</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>31.467</v>
+        <v>-4.857</v>
       </c>
       <c r="N24" s="1" t="n"/>
       <c r="O24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>24.665</v>
+        <v>35.335</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-34.335</v>
+        <v>5.335</v>
       </c>
       <c r="S24" s="1" t="n"/>
       <c r="T24" s="1" t="n"/>
@@ -8597,26 +8601,26 @@
         <v>3</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>-33.96599999999999</v>
+        <v>-18</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>-23.477</v>
+        <v>-12.523</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>10.489</v>
+        <v>5.477</v>
       </c>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>35.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>23.955</v>
+        <v>12.045</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-11.445</v>
+        <v>-5.955</v>
       </c>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
@@ -8642,26 +8646,26 @@
         <v>4</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>-11.322</v>
+        <v>-6</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>-0.833</v>
+        <v>-11.167</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>10.489</v>
+        <v>-5.167</v>
       </c>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n">
         <v>4</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>11.8</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>0.355</v>
+        <v>11.645</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-11.445</v>
+        <v>5.645</v>
       </c>
       <c r="S26" s="1" t="n"/>
       <c r="T26" s="1" t="n"/>
@@ -8687,26 +8691,26 @@
         <v>5</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>11.322</v>
+        <v>6</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>0.833</v>
+        <v>11.167</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>-10.489</v>
+        <v>5.167</v>
       </c>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>-11.8</v>
+        <v>-6</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>-0.355</v>
+        <v>-11.645</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>11.445</v>
+        <v>-5.645</v>
       </c>
       <c r="S27" s="1" t="n"/>
       <c r="T27" s="1" t="n"/>
@@ -8732,26 +8736,26 @@
         <v>6</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>33.96599999999999</v>
+        <v>18</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>23.477</v>
+        <v>12.523</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>-10.489</v>
+        <v>-5.477</v>
       </c>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n">
         <v>6</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>-35.40000000000001</v>
+        <v>-18</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>-23.955</v>
+        <v>-12.045</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>11.445</v>
+        <v>5.955</v>
       </c>
       <c r="S28" s="1" t="n"/>
       <c r="T28" s="1" t="n"/>
@@ -8777,26 +8781,26 @@
         <v>7</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>56.61</v>
+        <v>30</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>25.143</v>
+        <v>34.857</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>-31.467</v>
+        <v>4.857</v>
       </c>
       <c r="N29" s="1" t="n"/>
       <c r="O29" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>-59</v>
+        <v>-30</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>-24.665</v>
+        <v>-35.335</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>34.335</v>
+        <v>-5.335</v>
       </c>
       <c r="S29" s="1" t="n"/>
       <c r="T29" s="1" t="n"/>
@@ -8822,26 +8826,26 @@
         <v>8</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>79.25399999999999</v>
+        <v>42</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>47.787</v>
+        <v>36.213</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>-31.467</v>
+        <v>-5.787</v>
       </c>
       <c r="N30" s="1" t="n"/>
       <c r="O30" s="1" t="n">
         <v>8</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>-82.60000000000001</v>
+        <v>-42</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>-48.265</v>
+        <v>-35.735</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>34.335</v>
+        <v>6.265</v>
       </c>
       <c r="S30" s="1" t="n"/>
       <c r="T30" s="1" t="n"/>
@@ -8913,16 +8917,16 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>0</v>
@@ -8934,7 +8938,7 @@
         <v>24.31</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>23.6</v>
+        <v>-0</v>
       </c>
       <c r="I33" s="1" t="n"/>
       <c r="J33" s="1" t="n">
@@ -8954,13 +8958,13 @@
         <v>1</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>82.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>48.265</v>
+        <v>-36.465</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-34.335</v>
+        <v>-36.465</v>
       </c>
       <c r="S33" s="1" t="n"/>
       <c r="T33" s="1" t="n"/>
@@ -8999,13 +9003,13 @@
         <v>2</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>24.665</v>
+        <v>-12.155</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-34.335</v>
+        <v>-12.155</v>
       </c>
       <c r="S34" s="1" t="n"/>
       <c r="T34" s="1" t="n"/>
@@ -9044,13 +9048,13 @@
         <v>3</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>35.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>23.955</v>
+        <v>12.155</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-11.445</v>
+        <v>12.155</v>
       </c>
       <c r="S35" s="1" t="n"/>
       <c r="T35" s="1" t="n"/>
@@ -9089,13 +9093,13 @@
         <v>4</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>0.355</v>
+        <v>36.465</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-11.445</v>
+        <v>36.465</v>
       </c>
       <c r="S36" s="1" t="n"/>
       <c r="T36" s="1" t="n"/>
@@ -9122,18 +9126,10 @@
       <c r="L37" s="1" t="n"/>
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
-      <c r="O37" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P37" s="1" t="n">
-        <v>-11.8</v>
-      </c>
-      <c r="Q37" s="1" t="n">
-        <v>-0.355</v>
-      </c>
-      <c r="R37" s="1" t="n">
-        <v>11.445</v>
-      </c>
+      <c r="O37" s="1" t="n"/>
+      <c r="P37" s="1" t="n"/>
+      <c r="Q37" s="1" t="n"/>
+      <c r="R37" s="1" t="n"/>
       <c r="S37" s="1" t="n"/>
       <c r="T37" s="1" t="n"/>
       <c r="U37" s="1" t="n"/>
@@ -9159,18 +9155,10 @@
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
-      <c r="O38" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="P38" s="1" t="n">
-        <v>-35.40000000000001</v>
-      </c>
-      <c r="Q38" s="1" t="n">
-        <v>-23.955</v>
-      </c>
-      <c r="R38" s="1" t="n">
-        <v>11.445</v>
-      </c>
+      <c r="O38" s="1" t="n"/>
+      <c r="P38" s="1" t="n"/>
+      <c r="Q38" s="1" t="n"/>
+      <c r="R38" s="1" t="n"/>
       <c r="S38" s="1" t="n"/>
       <c r="T38" s="1" t="n"/>
       <c r="U38" s="1" t="n"/>
@@ -9182,31 +9170,55 @@
       <c r="AA38" s="1" t="n"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
-      <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
-      <c r="F39" s="1" t="n"/>
-      <c r="G39" s="1" t="n"/>
-      <c r="H39" s="1" t="n"/>
+      <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>-0</v>
+      </c>
       <c r="I39" s="1" t="n"/>
-      <c r="J39" s="1" t="n"/>
-      <c r="K39" s="1" t="n"/>
-      <c r="L39" s="1" t="n"/>
-      <c r="M39" s="1" t="n"/>
+      <c r="J39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N39" s="1" t="n"/>
       <c r="O39" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>-24.665</v>
+        <v>-36.465</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>34.335</v>
+        <v>-36.465</v>
       </c>
       <c r="S39" s="1" t="n"/>
       <c r="T39" s="1" t="n"/>
@@ -9228,22 +9240,30 @@
       <c r="G40" s="1" t="n"/>
       <c r="H40" s="1" t="n"/>
       <c r="I40" s="1" t="n"/>
-      <c r="J40" s="1" t="n"/>
-      <c r="K40" s="1" t="n"/>
-      <c r="L40" s="1" t="n"/>
-      <c r="M40" s="1" t="n"/>
+      <c r="J40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N40" s="1" t="n"/>
       <c r="O40" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>-82.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1" t="n">
-        <v>-48.265</v>
+        <v>-12.155</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>34.335</v>
+        <v>-12.155</v>
       </c>
       <c r="S40" s="1" t="n"/>
       <c r="T40" s="1" t="n"/>
@@ -9265,15 +9285,31 @@
       <c r="G41" s="1" t="n"/>
       <c r="H41" s="1" t="n"/>
       <c r="I41" s="1" t="n"/>
-      <c r="J41" s="1" t="n"/>
-      <c r="K41" s="1" t="n"/>
-      <c r="L41" s="1" t="n"/>
-      <c r="M41" s="1" t="n"/>
+      <c r="J41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N41" s="1" t="n"/>
-      <c r="O41" s="1" t="n"/>
-      <c r="P41" s="1" t="n"/>
-      <c r="Q41" s="1" t="n"/>
-      <c r="R41" s="1" t="n"/>
+      <c r="O41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>12.155</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>12.155</v>
+      </c>
       <c r="S41" s="1" t="n"/>
       <c r="T41" s="1" t="n"/>
       <c r="U41" s="1" t="n"/>
@@ -9294,15 +9330,31 @@
       <c r="G42" s="1" t="n"/>
       <c r="H42" s="1" t="n"/>
       <c r="I42" s="1" t="n"/>
-      <c r="J42" s="1" t="n"/>
-      <c r="K42" s="1" t="n"/>
-      <c r="L42" s="1" t="n"/>
-      <c r="M42" s="1" t="n"/>
+      <c r="J42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N42" s="1" t="n"/>
-      <c r="O42" s="1" t="n"/>
-      <c r="P42" s="1" t="n"/>
-      <c r="Q42" s="1" t="n"/>
-      <c r="R42" s="1" t="n"/>
+      <c r="O42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>36.465</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>36.465</v>
+      </c>
       <c r="S42" s="1" t="n"/>
       <c r="T42" s="1" t="n"/>
       <c r="U42" s="1" t="n"/>
@@ -9314,56 +9366,24 @@
       <c r="AA42" s="1" t="n"/>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>7.44</v>
-      </c>
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
       <c r="I43" s="1" t="n"/>
-      <c r="J43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="n"/>
-      <c r="O43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="1" t="n">
-        <v>40.92</v>
-      </c>
-      <c r="Q43" s="1" t="n">
-        <v>43.905</v>
-      </c>
-      <c r="R43" s="1" t="n">
-        <v>2.985</v>
-      </c>
+      <c r="O43" s="1" t="n"/>
+      <c r="P43" s="1" t="n"/>
+      <c r="Q43" s="1" t="n"/>
+      <c r="R43" s="1" t="n"/>
       <c r="S43" s="1" t="n"/>
       <c r="T43" s="1" t="n"/>
       <c r="U43" s="1" t="n"/>
@@ -9384,31 +9404,15 @@
       <c r="G44" s="1" t="n"/>
       <c r="H44" s="1" t="n"/>
       <c r="I44" s="1" t="n"/>
-      <c r="J44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" s="1" t="n"/>
+      <c r="K44" s="1" t="n"/>
+      <c r="L44" s="1" t="n"/>
+      <c r="M44" s="1" t="n"/>
       <c r="N44" s="1" t="n"/>
-      <c r="O44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P44" s="1" t="n">
-        <v>33.48</v>
-      </c>
-      <c r="Q44" s="1" t="n">
-        <v>36.465</v>
-      </c>
-      <c r="R44" s="1" t="n">
-        <v>2.985</v>
-      </c>
+      <c r="O44" s="1" t="n"/>
+      <c r="P44" s="1" t="n"/>
+      <c r="Q44" s="1" t="n"/>
+      <c r="R44" s="1" t="n"/>
       <c r="S44" s="1" t="n"/>
       <c r="T44" s="1" t="n"/>
       <c r="U44" s="1" t="n"/>
@@ -9420,17 +9424,33 @@
       <c r="AA44" s="1" t="n"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
-      <c r="D45" s="1" t="n"/>
-      <c r="E45" s="1" t="n"/>
-      <c r="F45" s="1" t="n"/>
-      <c r="G45" s="1" t="n"/>
-      <c r="H45" s="1" t="n"/>
+      <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>12</v>
+      </c>
       <c r="I45" s="1" t="n"/>
       <c r="J45" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>0</v>
@@ -9443,16 +9463,16 @@
       </c>
       <c r="N45" s="1" t="n"/>
       <c r="O45" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>26.04</v>
+        <v>42</v>
       </c>
       <c r="Q45" s="1" t="n">
-        <v>29.025</v>
+        <v>35.735</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>2.985</v>
+        <v>-6.265</v>
       </c>
       <c r="S45" s="1" t="n"/>
       <c r="T45" s="1" t="n"/>
@@ -9475,7 +9495,7 @@
       <c r="H46" s="1" t="n"/>
       <c r="I46" s="1" t="n"/>
       <c r="J46" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>0</v>
@@ -9488,16 +9508,16 @@
       </c>
       <c r="N46" s="1" t="n"/>
       <c r="O46" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>18.6</v>
+        <v>30</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>19.595</v>
+        <v>35.335</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0.995</v>
+        <v>5.335</v>
       </c>
       <c r="S46" s="1" t="n"/>
       <c r="T46" s="1" t="n"/>
@@ -9519,22 +9539,30 @@
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="1" t="n"/>
       <c r="I47" s="1" t="n"/>
-      <c r="J47" s="1" t="n"/>
-      <c r="K47" s="1" t="n"/>
-      <c r="L47" s="1" t="n"/>
-      <c r="M47" s="1" t="n"/>
+      <c r="J47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N47" s="1" t="n"/>
       <c r="O47" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>11.16</v>
+        <v>18</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>12.155</v>
+        <v>12.045</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0.995</v>
+        <v>-5.955</v>
       </c>
       <c r="S47" s="1" t="n"/>
       <c r="T47" s="1" t="n"/>
@@ -9556,22 +9584,30 @@
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="1" t="n"/>
       <c r="I48" s="1" t="n"/>
-      <c r="J48" s="1" t="n"/>
-      <c r="K48" s="1" t="n"/>
-      <c r="L48" s="1" t="n"/>
-      <c r="M48" s="1" t="n"/>
+      <c r="J48" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N48" s="1" t="n"/>
       <c r="O48" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P48" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="P48" s="1" t="n">
-        <v>3.72</v>
-      </c>
       <c r="Q48" s="1" t="n">
-        <v>4.715</v>
+        <v>11.645</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0.995</v>
+        <v>5.645</v>
       </c>
       <c r="S48" s="1" t="n"/>
       <c r="T48" s="1" t="n"/>
@@ -9599,16 +9635,16 @@
       <c r="M49" s="1" t="n"/>
       <c r="N49" s="1" t="n"/>
       <c r="O49" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>-3.72</v>
+        <v>-6</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>-4.715</v>
+        <v>-11.645</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-0.995</v>
+        <v>-5.645</v>
       </c>
       <c r="S49" s="1" t="n"/>
       <c r="T49" s="1" t="n"/>
@@ -9636,16 +9672,16 @@
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
       <c r="O50" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>-11.16</v>
+        <v>-18</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>-12.155</v>
+        <v>-12.045</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.995</v>
+        <v>5.955</v>
       </c>
       <c r="S50" s="1" t="n"/>
       <c r="T50" s="1" t="n"/>
@@ -9673,16 +9709,16 @@
       <c r="M51" s="1" t="n"/>
       <c r="N51" s="1" t="n"/>
       <c r="O51" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>-18.6</v>
+        <v>-30</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>-19.595</v>
+        <v>-35.335</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.995</v>
+        <v>-5.335</v>
       </c>
       <c r="S51" s="1" t="n"/>
       <c r="T51" s="1" t="n"/>
@@ -9710,16 +9746,16 @@
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
       <c r="O52" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>-26.04</v>
+        <v>-42</v>
       </c>
       <c r="Q52" s="1" t="n">
-        <v>-29.025</v>
+        <v>-35.735</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-2.985</v>
+        <v>6.265</v>
       </c>
       <c r="S52" s="1" t="n"/>
       <c r="T52" s="1" t="n"/>
@@ -9746,18 +9782,10 @@
       <c r="L53" s="1" t="n"/>
       <c r="M53" s="1" t="n"/>
       <c r="N53" s="1" t="n"/>
-      <c r="O53" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="P53" s="1" t="n">
-        <v>-33.48</v>
-      </c>
-      <c r="Q53" s="1" t="n">
-        <v>-36.465</v>
-      </c>
-      <c r="R53" s="1" t="n">
-        <v>-2.985</v>
-      </c>
+      <c r="O53" s="1" t="n"/>
+      <c r="P53" s="1" t="n"/>
+      <c r="Q53" s="1" t="n"/>
+      <c r="R53" s="1" t="n"/>
       <c r="S53" s="1" t="n"/>
       <c r="T53" s="1" t="n"/>
       <c r="U53" s="1" t="n"/>
@@ -9783,18 +9811,10 @@
       <c r="L54" s="1" t="n"/>
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
-      <c r="O54" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="P54" s="1" t="n">
-        <v>-40.92</v>
-      </c>
-      <c r="Q54" s="1" t="n">
-        <v>-43.905</v>
-      </c>
-      <c r="R54" s="1" t="n">
-        <v>-2.985</v>
-      </c>
+      <c r="O54" s="1" t="n"/>
+      <c r="P54" s="1" t="n"/>
+      <c r="Q54" s="1" t="n"/>
+      <c r="R54" s="1" t="n"/>
       <c r="S54" s="1" t="n"/>
       <c r="T54" s="1" t="n"/>
       <c r="U54" s="1" t="n"/>
@@ -9806,24 +9826,56 @@
       <c r="AA54" s="1" t="n"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
-      <c r="D55" s="1" t="n"/>
-      <c r="E55" s="1" t="n"/>
-      <c r="F55" s="1" t="n"/>
-      <c r="G55" s="1" t="n"/>
-      <c r="H55" s="1" t="n"/>
+      <c r="A55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="I55" s="1" t="n"/>
-      <c r="J55" s="1" t="n"/>
-      <c r="K55" s="1" t="n"/>
-      <c r="L55" s="1" t="n"/>
-      <c r="M55" s="1" t="n"/>
+      <c r="J55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N55" s="1" t="n"/>
-      <c r="O55" s="1" t="n"/>
-      <c r="P55" s="1" t="n"/>
-      <c r="Q55" s="1" t="n"/>
-      <c r="R55" s="1" t="n"/>
+      <c r="O55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>44.095</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>0.095</v>
+      </c>
       <c r="S55" s="1" t="n"/>
       <c r="T55" s="1" t="n"/>
       <c r="U55" s="1" t="n"/>
@@ -9844,15 +9896,31 @@
       <c r="G56" s="1" t="n"/>
       <c r="H56" s="1" t="n"/>
       <c r="I56" s="1" t="n"/>
-      <c r="J56" s="1" t="n"/>
-      <c r="K56" s="1" t="n"/>
-      <c r="L56" s="1" t="n"/>
-      <c r="M56" s="1" t="n"/>
+      <c r="J56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N56" s="1" t="n"/>
-      <c r="O56" s="1" t="n"/>
-      <c r="P56" s="1" t="n"/>
-      <c r="Q56" s="1" t="n"/>
-      <c r="R56" s="1" t="n"/>
+      <c r="O56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>35.535</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>-0.465</v>
+      </c>
       <c r="S56" s="1" t="n"/>
       <c r="T56" s="1" t="n"/>
       <c r="U56" s="1" t="n"/>
@@ -9864,33 +9932,17 @@
       <c r="AA56" s="1" t="n"/>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>7.44</v>
-      </c>
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+      <c r="F57" s="1" t="n"/>
+      <c r="G57" s="1" t="n"/>
+      <c r="H57" s="1" t="n"/>
       <c r="I57" s="1" t="n"/>
       <c r="J57" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>0</v>
@@ -9903,16 +9955,16 @@
       </c>
       <c r="N57" s="1" t="n"/>
       <c r="O57" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>40.92</v>
+        <v>28</v>
       </c>
       <c r="Q57" s="1" t="n">
-        <v>43.905</v>
+        <v>26.975</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>2.985</v>
+        <v>-1.025</v>
       </c>
       <c r="S57" s="1" t="n"/>
       <c r="T57" s="1" t="n"/>
@@ -9935,7 +9987,7 @@
       <c r="H58" s="1" t="n"/>
       <c r="I58" s="1" t="n"/>
       <c r="J58" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>0</v>
@@ -9948,16 +10000,16 @@
       </c>
       <c r="N58" s="1" t="n"/>
       <c r="O58" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>33.48</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="1" t="n">
-        <v>36.465</v>
+        <v>20.405</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>2.985</v>
+        <v>0.405</v>
       </c>
       <c r="S58" s="1" t="n"/>
       <c r="T58" s="1" t="n"/>
@@ -9979,30 +10031,22 @@
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="1" t="n"/>
       <c r="I59" s="1" t="n"/>
-      <c r="J59" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
       <c r="N59" s="1" t="n"/>
       <c r="O59" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>26.04</v>
+        <v>12</v>
       </c>
       <c r="Q59" s="1" t="n">
-        <v>29.025</v>
+        <v>11.845</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>2.985</v>
+        <v>-0.155</v>
       </c>
       <c r="S59" s="1" t="n"/>
       <c r="T59" s="1" t="n"/>
@@ -10024,30 +10068,22 @@
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="1" t="n"/>
       <c r="I60" s="1" t="n"/>
-      <c r="J60" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" s="1" t="n"/>
+      <c r="K60" s="1" t="n"/>
+      <c r="L60" s="1" t="n"/>
+      <c r="M60" s="1" t="n"/>
       <c r="N60" s="1" t="n"/>
       <c r="O60" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>18.6</v>
+        <v>4</v>
       </c>
       <c r="Q60" s="1" t="n">
-        <v>19.595</v>
+        <v>3.285</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0.995</v>
+        <v>-0.715</v>
       </c>
       <c r="S60" s="1" t="n"/>
       <c r="T60" s="1" t="n"/>
@@ -10075,16 +10111,16 @@
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
       <c r="O61" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>11.16</v>
+        <v>-4</v>
       </c>
       <c r="Q61" s="1" t="n">
-        <v>12.155</v>
+        <v>-3.285</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.995</v>
+        <v>0.715</v>
       </c>
       <c r="S61" s="1" t="n"/>
       <c r="T61" s="1" t="n"/>
@@ -10112,16 +10148,16 @@
       <c r="M62" s="1" t="n"/>
       <c r="N62" s="1" t="n"/>
       <c r="O62" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>3.72</v>
+        <v>-12</v>
       </c>
       <c r="Q62" s="1" t="n">
-        <v>4.715</v>
+        <v>-11.845</v>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0.995</v>
+        <v>0.155</v>
       </c>
       <c r="S62" s="1" t="n"/>
       <c r="T62" s="1" t="n"/>
@@ -10149,16 +10185,16 @@
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
       <c r="O63" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>-3.72</v>
+        <v>-20</v>
       </c>
       <c r="Q63" s="1" t="n">
-        <v>-4.715</v>
+        <v>-20.405</v>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.995</v>
+        <v>-0.405</v>
       </c>
       <c r="S63" s="1" t="n"/>
       <c r="T63" s="1" t="n"/>
@@ -10186,16 +10222,16 @@
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
       <c r="O64" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-11.16</v>
+        <v>-28</v>
       </c>
       <c r="Q64" s="1" t="n">
-        <v>-12.155</v>
+        <v>-26.975</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-0.995</v>
+        <v>1.025</v>
       </c>
       <c r="S64" s="1" t="n"/>
       <c r="T64" s="1" t="n"/>
@@ -10223,16 +10259,16 @@
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
       <c r="O65" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>-18.6</v>
+        <v>-36</v>
       </c>
       <c r="Q65" s="1" t="n">
-        <v>-19.595</v>
+        <v>-35.535</v>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-0.995</v>
+        <v>0.465</v>
       </c>
       <c r="S65" s="1" t="n"/>
       <c r="T65" s="1" t="n"/>
@@ -10260,16 +10296,16 @@
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
       <c r="O66" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-26.04</v>
+        <v>-44</v>
       </c>
       <c r="Q66" s="1" t="n">
-        <v>-29.025</v>
+        <v>-44.095</v>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-2.985</v>
+        <v>-0.095</v>
       </c>
       <c r="S66" s="1" t="n"/>
       <c r="T66" s="1" t="n"/>
@@ -10296,18 +10332,10 @@
       <c r="L67" s="1" t="n"/>
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
-      <c r="O67" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="P67" s="1" t="n">
-        <v>-33.48</v>
-      </c>
-      <c r="Q67" s="1" t="n">
-        <v>-36.465</v>
-      </c>
-      <c r="R67" s="1" t="n">
-        <v>-2.985</v>
-      </c>
+      <c r="O67" s="1" t="n"/>
+      <c r="P67" s="1" t="n"/>
+      <c r="Q67" s="1" t="n"/>
+      <c r="R67" s="1" t="n"/>
       <c r="S67" s="1" t="n"/>
       <c r="T67" s="1" t="n"/>
       <c r="U67" s="1" t="n"/>
@@ -10333,18 +10361,10 @@
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
-      <c r="O68" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="P68" s="1" t="n">
-        <v>-40.92</v>
-      </c>
-      <c r="Q68" s="1" t="n">
-        <v>-43.905</v>
-      </c>
-      <c r="R68" s="1" t="n">
-        <v>-2.985</v>
-      </c>
+      <c r="O68" s="1" t="n"/>
+      <c r="P68" s="1" t="n"/>
+      <c r="Q68" s="1" t="n"/>
+      <c r="R68" s="1" t="n"/>
       <c r="S68" s="1" t="n"/>
       <c r="T68" s="1" t="n"/>
       <c r="U68" s="1" t="n"/>
@@ -10356,24 +10376,56 @@
       <c r="AA68" s="1" t="n"/>
     </row>
     <row r="69" spans="1:27">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
-      <c r="D69" s="1" t="n"/>
-      <c r="E69" s="1" t="n"/>
-      <c r="F69" s="1" t="n"/>
-      <c r="G69" s="1" t="n"/>
-      <c r="H69" s="1" t="n"/>
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="I69" s="1" t="n"/>
-      <c r="J69" s="1" t="n"/>
-      <c r="K69" s="1" t="n"/>
-      <c r="L69" s="1" t="n"/>
-      <c r="M69" s="1" t="n"/>
+      <c r="J69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N69" s="1" t="n"/>
-      <c r="O69" s="1" t="n"/>
-      <c r="P69" s="1" t="n"/>
-      <c r="Q69" s="1" t="n"/>
-      <c r="R69" s="1" t="n"/>
+      <c r="O69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>44.095</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>0.095</v>
+      </c>
       <c r="S69" s="1" t="n"/>
       <c r="T69" s="1" t="n"/>
       <c r="U69" s="1" t="n"/>
@@ -10394,15 +10446,31 @@
       <c r="G70" s="1" t="n"/>
       <c r="H70" s="1" t="n"/>
       <c r="I70" s="1" t="n"/>
-      <c r="J70" s="1" t="n"/>
-      <c r="K70" s="1" t="n"/>
-      <c r="L70" s="1" t="n"/>
-      <c r="M70" s="1" t="n"/>
+      <c r="J70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N70" s="1" t="n"/>
-      <c r="O70" s="1" t="n"/>
-      <c r="P70" s="1" t="n"/>
-      <c r="Q70" s="1" t="n"/>
-      <c r="R70" s="1" t="n"/>
+      <c r="O70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>35.535</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>-0.465</v>
+      </c>
       <c r="S70" s="1" t="n"/>
       <c r="T70" s="1" t="n"/>
       <c r="U70" s="1" t="n"/>
@@ -10414,33 +10482,17 @@
       <c r="AA70" s="1" t="n"/>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="H71" s="1" t="n">
-        <v>23.6</v>
-      </c>
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
       <c r="I71" s="1" t="n"/>
       <c r="J71" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>0</v>
@@ -10453,16 +10505,16 @@
       </c>
       <c r="N71" s="1" t="n"/>
       <c r="O71" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>82.60000000000001</v>
+        <v>28</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>48.265</v>
+        <v>26.975</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-34.335</v>
+        <v>-1.025</v>
       </c>
       <c r="S71" s="1" t="n"/>
       <c r="T71" s="1" t="n"/>
@@ -10485,7 +10537,7 @@
       <c r="H72" s="1" t="n"/>
       <c r="I72" s="1" t="n"/>
       <c r="J72" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>0</v>
@@ -10498,16 +10550,16 @@
       </c>
       <c r="N72" s="1" t="n"/>
       <c r="O72" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="Q72" s="1" t="n">
-        <v>24.665</v>
+        <v>20.405</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-34.335</v>
+        <v>0.405</v>
       </c>
       <c r="S72" s="1" t="n"/>
       <c r="T72" s="1" t="n"/>
@@ -10529,30 +10581,22 @@
       <c r="G73" s="1" t="n"/>
       <c r="H73" s="1" t="n"/>
       <c r="I73" s="1" t="n"/>
-      <c r="J73" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
       <c r="N73" s="1" t="n"/>
       <c r="O73" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>35.40000000000001</v>
+        <v>12</v>
       </c>
       <c r="Q73" s="1" t="n">
-        <v>23.955</v>
+        <v>11.845</v>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-11.445</v>
+        <v>-0.155</v>
       </c>
       <c r="S73" s="1" t="n"/>
       <c r="T73" s="1" t="n"/>
@@ -10574,30 +10618,22 @@
       <c r="G74" s="1" t="n"/>
       <c r="H74" s="1" t="n"/>
       <c r="I74" s="1" t="n"/>
-      <c r="J74" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
       <c r="N74" s="1" t="n"/>
       <c r="O74" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>11.8</v>
+        <v>4</v>
       </c>
       <c r="Q74" s="1" t="n">
-        <v>0.355</v>
+        <v>3.285</v>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-11.445</v>
+        <v>-0.715</v>
       </c>
       <c r="S74" s="1" t="n"/>
       <c r="T74" s="1" t="n"/>
@@ -10625,16 +10661,16 @@
       <c r="M75" s="1" t="n"/>
       <c r="N75" s="1" t="n"/>
       <c r="O75" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>-11.8</v>
+        <v>-4</v>
       </c>
       <c r="Q75" s="1" t="n">
-        <v>-0.355</v>
+        <v>-3.285</v>
       </c>
       <c r="R75" s="1" t="n">
-        <v>11.445</v>
+        <v>0.715</v>
       </c>
       <c r="S75" s="1" t="n"/>
       <c r="T75" s="1" t="n"/>
@@ -10662,16 +10698,16 @@
       <c r="M76" s="1" t="n"/>
       <c r="N76" s="1" t="n"/>
       <c r="O76" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>-35.40000000000001</v>
+        <v>-12</v>
       </c>
       <c r="Q76" s="1" t="n">
-        <v>-23.955</v>
+        <v>-11.845</v>
       </c>
       <c r="R76" s="1" t="n">
-        <v>11.445</v>
+        <v>0.155</v>
       </c>
       <c r="S76" s="1" t="n"/>
       <c r="T76" s="1" t="n"/>
@@ -10699,16 +10735,16 @@
       <c r="M77" s="1" t="n"/>
       <c r="N77" s="1" t="n"/>
       <c r="O77" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>-59</v>
+        <v>-20</v>
       </c>
       <c r="Q77" s="1" t="n">
-        <v>-24.665</v>
+        <v>-20.405</v>
       </c>
       <c r="R77" s="1" t="n">
-        <v>34.335</v>
+        <v>-0.405</v>
       </c>
       <c r="S77" s="1" t="n"/>
       <c r="T77" s="1" t="n"/>
@@ -10736,16 +10772,16 @@
       <c r="M78" s="1" t="n"/>
       <c r="N78" s="1" t="n"/>
       <c r="O78" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>-82.60000000000001</v>
+        <v>-28</v>
       </c>
       <c r="Q78" s="1" t="n">
-        <v>-48.265</v>
+        <v>-26.975</v>
       </c>
       <c r="R78" s="1" t="n">
-        <v>34.335</v>
+        <v>1.025</v>
       </c>
       <c r="S78" s="1" t="n"/>
       <c r="T78" s="1" t="n"/>
@@ -10772,10 +10808,18 @@
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n"/>
       <c r="N79" s="1" t="n"/>
-      <c r="O79" s="1" t="n"/>
-      <c r="P79" s="1" t="n"/>
-      <c r="Q79" s="1" t="n"/>
-      <c r="R79" s="1" t="n"/>
+      <c r="O79" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>-35.535</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>0.465</v>
+      </c>
       <c r="S79" s="1" t="n"/>
       <c r="T79" s="1" t="n"/>
       <c r="U79" s="1" t="n"/>
@@ -10801,10 +10845,18 @@
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n"/>
       <c r="N80" s="1" t="n"/>
-      <c r="O80" s="1" t="n"/>
-      <c r="P80" s="1" t="n"/>
-      <c r="Q80" s="1" t="n"/>
-      <c r="R80" s="1" t="n"/>
+      <c r="O80" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>-44.095</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>-0.095</v>
+      </c>
       <c r="S80" s="1" t="n"/>
       <c r="T80" s="1" t="n"/>
       <c r="U80" s="1" t="n"/>
@@ -10874,24 +10926,56 @@
       <c r="AA82" s="1" t="n"/>
     </row>
     <row r="83" spans="1:27">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="n"/>
-      <c r="C83" s="1" t="n"/>
-      <c r="D83" s="1" t="n"/>
-      <c r="E83" s="1" t="n"/>
-      <c r="F83" s="1" t="n"/>
-      <c r="G83" s="1" t="n"/>
-      <c r="H83" s="1" t="n"/>
+      <c r="A83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>12</v>
+      </c>
       <c r="I83" s="1" t="n"/>
-      <c r="J83" s="1" t="n"/>
-      <c r="K83" s="1" t="n"/>
-      <c r="L83" s="1" t="n"/>
-      <c r="M83" s="1" t="n"/>
+      <c r="J83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N83" s="1" t="n"/>
-      <c r="O83" s="1" t="n"/>
-      <c r="P83" s="1" t="n"/>
-      <c r="Q83" s="1" t="n"/>
-      <c r="R83" s="1" t="n"/>
+      <c r="O83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>35.735</v>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>-6.265</v>
+      </c>
       <c r="S83" s="1" t="n"/>
       <c r="T83" s="1" t="n"/>
       <c r="U83" s="1" t="n"/>
@@ -10912,15 +10996,31 @@
       <c r="G84" s="1" t="n"/>
       <c r="H84" s="1" t="n"/>
       <c r="I84" s="1" t="n"/>
-      <c r="J84" s="1" t="n"/>
-      <c r="K84" s="1" t="n"/>
-      <c r="L84" s="1" t="n"/>
-      <c r="M84" s="1" t="n"/>
+      <c r="J84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N84" s="1" t="n"/>
-      <c r="O84" s="1" t="n"/>
-      <c r="P84" s="1" t="n"/>
-      <c r="Q84" s="1" t="n"/>
-      <c r="R84" s="1" t="n"/>
+      <c r="O84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>35.335</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>5.335</v>
+      </c>
       <c r="S84" s="1" t="n"/>
       <c r="T84" s="1" t="n"/>
       <c r="U84" s="1" t="n"/>
@@ -10941,15 +11041,31 @@
       <c r="G85" s="1" t="n"/>
       <c r="H85" s="1" t="n"/>
       <c r="I85" s="1" t="n"/>
-      <c r="J85" s="1" t="n"/>
-      <c r="K85" s="1" t="n"/>
-      <c r="L85" s="1" t="n"/>
-      <c r="M85" s="1" t="n"/>
+      <c r="J85" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N85" s="1" t="n"/>
-      <c r="O85" s="1" t="n"/>
-      <c r="P85" s="1" t="n"/>
-      <c r="Q85" s="1" t="n"/>
-      <c r="R85" s="1" t="n"/>
+      <c r="O85" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>12.045</v>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>-5.955</v>
+      </c>
       <c r="S85" s="1" t="n"/>
       <c r="T85" s="1" t="n"/>
       <c r="U85" s="1" t="n"/>
@@ -10970,15 +11086,31 @@
       <c r="G86" s="1" t="n"/>
       <c r="H86" s="1" t="n"/>
       <c r="I86" s="1" t="n"/>
-      <c r="J86" s="1" t="n"/>
-      <c r="K86" s="1" t="n"/>
-      <c r="L86" s="1" t="n"/>
-      <c r="M86" s="1" t="n"/>
+      <c r="J86" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N86" s="1" t="n"/>
-      <c r="O86" s="1" t="n"/>
-      <c r="P86" s="1" t="n"/>
-      <c r="Q86" s="1" t="n"/>
-      <c r="R86" s="1" t="n"/>
+      <c r="O86" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>11.645</v>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>5.645</v>
+      </c>
       <c r="S86" s="1" t="n"/>
       <c r="T86" s="1" t="n"/>
       <c r="U86" s="1" t="n"/>
@@ -11004,10 +11136,18 @@
       <c r="L87" s="1" t="n"/>
       <c r="M87" s="1" t="n"/>
       <c r="N87" s="1" t="n"/>
-      <c r="O87" s="1" t="n"/>
-      <c r="P87" s="1" t="n"/>
-      <c r="Q87" s="1" t="n"/>
-      <c r="R87" s="1" t="n"/>
+      <c r="O87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Q87" s="1" t="n">
+        <v>-11.645</v>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>-5.645</v>
+      </c>
       <c r="S87" s="1" t="n"/>
       <c r="T87" s="1" t="n"/>
       <c r="U87" s="1" t="n"/>
@@ -11033,10 +11173,18 @@
       <c r="L88" s="1" t="n"/>
       <c r="M88" s="1" t="n"/>
       <c r="N88" s="1" t="n"/>
-      <c r="O88" s="1" t="n"/>
-      <c r="P88" s="1" t="n"/>
-      <c r="Q88" s="1" t="n"/>
-      <c r="R88" s="1" t="n"/>
+      <c r="O88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P88" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="Q88" s="1" t="n">
+        <v>-12.045</v>
+      </c>
+      <c r="R88" s="1" t="n">
+        <v>5.955</v>
+      </c>
       <c r="S88" s="1" t="n"/>
       <c r="T88" s="1" t="n"/>
       <c r="U88" s="1" t="n"/>
@@ -11062,10 +11210,18 @@
       <c r="L89" s="1" t="n"/>
       <c r="M89" s="1" t="n"/>
       <c r="N89" s="1" t="n"/>
-      <c r="O89" s="1" t="n"/>
-      <c r="P89" s="1" t="n"/>
-      <c r="Q89" s="1" t="n"/>
-      <c r="R89" s="1" t="n"/>
+      <c r="O89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>-30</v>
+      </c>
+      <c r="Q89" s="1" t="n">
+        <v>-35.335</v>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>-5.335</v>
+      </c>
       <c r="S89" s="1" t="n"/>
       <c r="T89" s="1" t="n"/>
       <c r="U89" s="1" t="n"/>
@@ -11091,10 +11247,18 @@
       <c r="L90" s="1" t="n"/>
       <c r="M90" s="1" t="n"/>
       <c r="N90" s="1" t="n"/>
-      <c r="O90" s="1" t="n"/>
-      <c r="P90" s="1" t="n"/>
-      <c r="Q90" s="1" t="n"/>
-      <c r="R90" s="1" t="n"/>
+      <c r="O90" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="Q90" s="1" t="n">
+        <v>-35.735</v>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>6.265</v>
+      </c>
       <c r="S90" s="1" t="n"/>
       <c r="T90" s="1" t="n"/>
       <c r="U90" s="1" t="n"/>

--- a/masks/code/diplexer_FINAL_reformating.xlsx
+++ b/masks/code/diplexer_FINAL_reformating.xlsx
@@ -4515,13 +4515,11 @@
         <v>24.31</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>-0</v>
+        <v>24.31</v>
       </c>
       <c r="Z60" s="1" t="n"/>
       <c r="AA60" s="1" t="n"/>
-      <c r="AB60" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="AB60" s="1" t="s"/>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="1" t="s">
@@ -4589,13 +4587,11 @@
         <v>24.31</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>-0</v>
+        <v>24.31</v>
       </c>
       <c r="Z61" s="1" t="n"/>
       <c r="AA61" s="1" t="n"/>
-      <c r="AB61" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="AB61" s="1" t="s"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="1" t="s">
@@ -7646,10 +7642,10 @@
         <v>-42</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>-36.213</v>
+        <v>-47.787</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>5.787</v>
+        <v>-5.787</v>
       </c>
       <c r="N3" s="1" t="n"/>
       <c r="O3" s="1" t="n">
@@ -7659,10 +7655,10 @@
         <v>42</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>35.735</v>
+        <v>48.265</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-6.265</v>
+        <v>6.265</v>
       </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="n"/>
@@ -7691,10 +7687,10 @@
         <v>-30</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>-34.857</v>
+        <v>-25.143</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>-4.857</v>
+        <v>4.857</v>
       </c>
       <c r="N4" s="1" t="n"/>
       <c r="O4" s="1" t="n">
@@ -7704,10 +7700,10 @@
         <v>30</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>35.335</v>
+        <v>24.665</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>5.335</v>
+        <v>-5.335</v>
       </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="n"/>
@@ -7736,10 +7732,10 @@
         <v>-18</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>-12.523</v>
+        <v>-23.477</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>5.477</v>
+        <v>-5.477</v>
       </c>
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="n">
@@ -7749,10 +7745,10 @@
         <v>18</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>12.045</v>
+        <v>23.955</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-5.955</v>
+        <v>5.955</v>
       </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="n"/>
@@ -7781,10 +7777,10 @@
         <v>-6</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>-11.167</v>
+        <v>-0.833</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>-5.167</v>
+        <v>5.167</v>
       </c>
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n">
@@ -7794,10 +7790,10 @@
         <v>6</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>11.645</v>
+        <v>0.355</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>5.645</v>
+        <v>-5.645</v>
       </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1" t="n"/>
@@ -7826,10 +7822,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>11.167</v>
+        <v>0.833</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>5.167</v>
+        <v>-5.167</v>
       </c>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="n">
@@ -7839,10 +7835,10 @@
         <v>-6</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>-11.645</v>
+        <v>-0.355</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-5.645</v>
+        <v>5.645</v>
       </c>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1" t="n"/>
@@ -7871,10 +7867,10 @@
         <v>18</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>12.523</v>
+        <v>23.477</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>-5.477</v>
+        <v>5.477</v>
       </c>
       <c r="N8" s="1" t="n"/>
       <c r="O8" s="1" t="n">
@@ -7884,10 +7880,10 @@
         <v>-18</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>-12.045</v>
+        <v>-23.955</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>5.955</v>
+        <v>-5.955</v>
       </c>
       <c r="S8" s="1" t="n"/>
       <c r="T8" s="1" t="n"/>
@@ -7916,10 +7912,10 @@
         <v>30</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>34.857</v>
+        <v>25.143</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>4.857</v>
+        <v>-4.857</v>
       </c>
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n">
@@ -7929,10 +7925,10 @@
         <v>-30</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>-35.335</v>
+        <v>-24.665</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-5.335</v>
+        <v>5.335</v>
       </c>
       <c r="S9" s="1" t="n"/>
       <c r="T9" s="1" t="n"/>
@@ -7961,10 +7957,10 @@
         <v>42</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>36.213</v>
+        <v>47.787</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>-5.787</v>
+        <v>5.787</v>
       </c>
       <c r="N10" s="1" t="n"/>
       <c r="O10" s="1" t="n">
@@ -7974,10 +7970,10 @@
         <v>-42</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>-35.735</v>
+        <v>-48.265</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>6.265</v>
+        <v>-6.265</v>
       </c>
       <c r="S10" s="1" t="n"/>
       <c r="T10" s="1" t="n"/>
@@ -8080,10 +8076,10 @@
         <v>-42</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>-41.955</v>
+        <v>-42.045</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.045</v>
+        <v>-0.045</v>
       </c>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n">
@@ -8093,10 +8089,10 @@
         <v>42</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>41.955</v>
+        <v>42.045</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.045</v>
+        <v>0.045</v>
       </c>
       <c r="S13" s="1" t="n"/>
       <c r="T13" s="1" t="n"/>
@@ -8125,10 +8121,10 @@
         <v>-30</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>-29.115</v>
+        <v>-30.885</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.885</v>
+        <v>-0.885</v>
       </c>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n">
@@ -8138,10 +8134,10 @@
         <v>30</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>29.115</v>
+        <v>30.885</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.885</v>
+        <v>0.885</v>
       </c>
       <c r="S14" s="1" t="n"/>
       <c r="T14" s="1" t="n"/>
@@ -8170,10 +8166,10 @@
         <v>-18</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-18.265</v>
+        <v>-17.735</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>-0.265</v>
+        <v>0.265</v>
       </c>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n">
@@ -8183,10 +8179,10 @@
         <v>18</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>18.265</v>
+        <v>17.735</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.265</v>
+        <v>-0.265</v>
       </c>
       <c r="S15" s="1" t="n"/>
       <c r="T15" s="1" t="n"/>
@@ -8215,10 +8211,10 @@
         <v>-6</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>-5.425</v>
+        <v>-6.575</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.575</v>
+        <v>-0.575</v>
       </c>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n">
@@ -8228,10 +8224,10 @@
         <v>6</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>5.425</v>
+        <v>6.575</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.575</v>
+        <v>0.575</v>
       </c>
       <c r="S16" s="1" t="n"/>
       <c r="T16" s="1" t="n"/>
@@ -8260,10 +8256,10 @@
         <v>6</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>5.425</v>
+        <v>6.575</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-0.575</v>
+        <v>0.575</v>
       </c>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n">
@@ -8273,10 +8269,10 @@
         <v>-6</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>-5.425</v>
+        <v>-6.575</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0.575</v>
+        <v>-0.575</v>
       </c>
       <c r="S17" s="1" t="n"/>
       <c r="T17" s="1" t="n"/>
@@ -8305,10 +8301,10 @@
         <v>18</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>18.265</v>
+        <v>17.735</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>0.265</v>
+        <v>-0.265</v>
       </c>
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n">
@@ -8318,10 +8314,10 @@
         <v>-18</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>-18.265</v>
+        <v>-17.735</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.265</v>
+        <v>0.265</v>
       </c>
       <c r="S18" s="1" t="n"/>
       <c r="T18" s="1" t="n"/>
@@ -8350,10 +8346,10 @@
         <v>30</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>29.115</v>
+        <v>30.885</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>-0.885</v>
+        <v>0.885</v>
       </c>
       <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n">
@@ -8363,10 +8359,10 @@
         <v>-30</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>-29.115</v>
+        <v>-30.885</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0.885</v>
+        <v>-0.885</v>
       </c>
       <c r="S19" s="1" t="n"/>
       <c r="T19" s="1" t="n"/>
@@ -8395,10 +8391,10 @@
         <v>42</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>41.955</v>
+        <v>42.045</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>-0.045</v>
+        <v>0.045</v>
       </c>
       <c r="N20" s="1" t="n"/>
       <c r="O20" s="1" t="n">
@@ -8408,10 +8404,10 @@
         <v>-42</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>-41.955</v>
+        <v>-42.045</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0.045</v>
+        <v>-0.045</v>
       </c>
       <c r="S20" s="1" t="n"/>
       <c r="T20" s="1" t="n"/>
@@ -8514,10 +8510,10 @@
         <v>-42</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>-36.213</v>
+        <v>-47.787</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>5.787</v>
+        <v>-5.787</v>
       </c>
       <c r="N23" s="1" t="n"/>
       <c r="O23" s="1" t="n">
@@ -8527,10 +8523,10 @@
         <v>42</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>35.735</v>
+        <v>48.265</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-6.265</v>
+        <v>6.265</v>
       </c>
       <c r="S23" s="1" t="n"/>
       <c r="T23" s="1" t="n"/>
@@ -8559,10 +8555,10 @@
         <v>-30</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>-34.857</v>
+        <v>-25.143</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>-4.857</v>
+        <v>4.857</v>
       </c>
       <c r="N24" s="1" t="n"/>
       <c r="O24" s="1" t="n">
@@ -8572,10 +8568,10 @@
         <v>30</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>35.335</v>
+        <v>24.665</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>5.335</v>
+        <v>-5.335</v>
       </c>
       <c r="S24" s="1" t="n"/>
       <c r="T24" s="1" t="n"/>
@@ -8604,10 +8600,10 @@
         <v>-18</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>-12.523</v>
+        <v>-23.477</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>5.477</v>
+        <v>-5.477</v>
       </c>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n">
@@ -8617,10 +8613,10 @@
         <v>18</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>12.045</v>
+        <v>23.955</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-5.955</v>
+        <v>5.955</v>
       </c>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
@@ -8649,10 +8645,10 @@
         <v>-6</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>-11.167</v>
+        <v>-0.833</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>-5.167</v>
+        <v>5.167</v>
       </c>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n">
@@ -8662,10 +8658,10 @@
         <v>6</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>11.645</v>
+        <v>0.355</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>5.645</v>
+        <v>-5.645</v>
       </c>
       <c r="S26" s="1" t="n"/>
       <c r="T26" s="1" t="n"/>
@@ -8694,10 +8690,10 @@
         <v>6</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>11.167</v>
+        <v>0.833</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>5.167</v>
+        <v>-5.167</v>
       </c>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n">
@@ -8707,10 +8703,10 @@
         <v>-6</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>-11.645</v>
+        <v>-0.355</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-5.645</v>
+        <v>5.645</v>
       </c>
       <c r="S27" s="1" t="n"/>
       <c r="T27" s="1" t="n"/>
@@ -8739,10 +8735,10 @@
         <v>18</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>12.523</v>
+        <v>23.477</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>-5.477</v>
+        <v>5.477</v>
       </c>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n">
@@ -8752,10 +8748,10 @@
         <v>-18</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>-12.045</v>
+        <v>-23.955</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>5.955</v>
+        <v>-5.955</v>
       </c>
       <c r="S28" s="1" t="n"/>
       <c r="T28" s="1" t="n"/>
@@ -8784,10 +8780,10 @@
         <v>30</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>34.857</v>
+        <v>25.143</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>4.857</v>
+        <v>-4.857</v>
       </c>
       <c r="N29" s="1" t="n"/>
       <c r="O29" s="1" t="n">
@@ -8797,10 +8793,10 @@
         <v>-30</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>-35.335</v>
+        <v>-24.665</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-5.335</v>
+        <v>5.335</v>
       </c>
       <c r="S29" s="1" t="n"/>
       <c r="T29" s="1" t="n"/>
@@ -8829,10 +8825,10 @@
         <v>42</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>36.213</v>
+        <v>47.787</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>-5.787</v>
+        <v>5.787</v>
       </c>
       <c r="N30" s="1" t="n"/>
       <c r="O30" s="1" t="n">
@@ -8842,10 +8838,10 @@
         <v>-42</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>-35.735</v>
+        <v>-48.265</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>6.265</v>
+        <v>-6.265</v>
       </c>
       <c r="S30" s="1" t="n"/>
       <c r="T30" s="1" t="n"/>
@@ -8917,7 +8913,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>59</v>
@@ -8926,7 +8922,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>0</v>
@@ -8938,7 +8934,7 @@
         <v>24.31</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>-0</v>
+        <v>12</v>
       </c>
       <c r="I33" s="1" t="n"/>
       <c r="J33" s="1" t="n">
@@ -8958,13 +8954,13 @@
         <v>1</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>-36.465</v>
+        <v>48.265</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-36.465</v>
+        <v>6.265</v>
       </c>
       <c r="S33" s="1" t="n"/>
       <c r="T33" s="1" t="n"/>
@@ -9003,13 +8999,13 @@
         <v>2</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>-12.155</v>
+        <v>24.665</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-12.155</v>
+        <v>-5.335</v>
       </c>
       <c r="S34" s="1" t="n"/>
       <c r="T34" s="1" t="n"/>
@@ -9048,13 +9044,13 @@
         <v>3</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>12.155</v>
+        <v>23.955</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>12.155</v>
+        <v>5.955</v>
       </c>
       <c r="S35" s="1" t="n"/>
       <c r="T35" s="1" t="n"/>
@@ -9093,13 +9089,13 @@
         <v>4</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>36.465</v>
+        <v>0.355</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>36.465</v>
+        <v>-5.645</v>
       </c>
       <c r="S36" s="1" t="n"/>
       <c r="T36" s="1" t="n"/>
@@ -9126,10 +9122,18 @@
       <c r="L37" s="1" t="n"/>
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
-      <c r="O37" s="1" t="n"/>
-      <c r="P37" s="1" t="n"/>
-      <c r="Q37" s="1" t="n"/>
-      <c r="R37" s="1" t="n"/>
+      <c r="O37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>-0.355</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>5.645</v>
+      </c>
       <c r="S37" s="1" t="n"/>
       <c r="T37" s="1" t="n"/>
       <c r="U37" s="1" t="n"/>
@@ -9155,10 +9159,18 @@
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
-      <c r="O38" s="1" t="n"/>
-      <c r="P38" s="1" t="n"/>
-      <c r="Q38" s="1" t="n"/>
-      <c r="R38" s="1" t="n"/>
+      <c r="O38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>-23.955</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>-5.955</v>
+      </c>
       <c r="S38" s="1" t="n"/>
       <c r="T38" s="1" t="n"/>
       <c r="U38" s="1" t="n"/>
@@ -9170,55 +9182,31 @@
       <c r="AA38" s="1" t="n"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>-0</v>
-      </c>
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
       <c r="I39" s="1" t="n"/>
-      <c r="J39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
       <c r="N39" s="1" t="n"/>
       <c r="O39" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>-36.465</v>
+        <v>-24.665</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-36.465</v>
+        <v>5.335</v>
       </c>
       <c r="S39" s="1" t="n"/>
       <c r="T39" s="1" t="n"/>
@@ -9240,30 +9228,22 @@
       <c r="G40" s="1" t="n"/>
       <c r="H40" s="1" t="n"/>
       <c r="I40" s="1" t="n"/>
-      <c r="J40" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+      <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
       <c r="O40" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="Q40" s="1" t="n">
-        <v>-12.155</v>
+        <v>-48.265</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-12.155</v>
+        <v>-6.265</v>
       </c>
       <c r="S40" s="1" t="n"/>
       <c r="T40" s="1" t="n"/>
@@ -9285,31 +9265,15 @@
       <c r="G41" s="1" t="n"/>
       <c r="H41" s="1" t="n"/>
       <c r="I41" s="1" t="n"/>
-      <c r="J41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
       <c r="N41" s="1" t="n"/>
-      <c r="O41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1" t="n">
-        <v>12.155</v>
-      </c>
-      <c r="R41" s="1" t="n">
-        <v>12.155</v>
-      </c>
+      <c r="O41" s="1" t="n"/>
+      <c r="P41" s="1" t="n"/>
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="n"/>
       <c r="S41" s="1" t="n"/>
       <c r="T41" s="1" t="n"/>
       <c r="U41" s="1" t="n"/>
@@ -9330,31 +9294,15 @@
       <c r="G42" s="1" t="n"/>
       <c r="H42" s="1" t="n"/>
       <c r="I42" s="1" t="n"/>
-      <c r="J42" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="n"/>
-      <c r="O42" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1" t="n">
-        <v>36.465</v>
-      </c>
-      <c r="R42" s="1" t="n">
-        <v>36.465</v>
-      </c>
+      <c r="O42" s="1" t="n"/>
+      <c r="P42" s="1" t="n"/>
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="n"/>
       <c r="S42" s="1" t="n"/>
       <c r="T42" s="1" t="n"/>
       <c r="U42" s="1" t="n"/>
@@ -9366,24 +9314,56 @@
       <c r="AA42" s="1" t="n"/>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="n"/>
-      <c r="E43" s="1" t="n"/>
-      <c r="F43" s="1" t="n"/>
-      <c r="G43" s="1" t="n"/>
-      <c r="H43" s="1" t="n"/>
+      <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="I43" s="1" t="n"/>
-      <c r="J43" s="1" t="n"/>
-      <c r="K43" s="1" t="n"/>
-      <c r="L43" s="1" t="n"/>
-      <c r="M43" s="1" t="n"/>
+      <c r="J43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N43" s="1" t="n"/>
-      <c r="O43" s="1" t="n"/>
-      <c r="P43" s="1" t="n"/>
-      <c r="Q43" s="1" t="n"/>
-      <c r="R43" s="1" t="n"/>
+      <c r="O43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>43.905</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>-0.095</v>
+      </c>
       <c r="S43" s="1" t="n"/>
       <c r="T43" s="1" t="n"/>
       <c r="U43" s="1" t="n"/>
@@ -9404,15 +9384,31 @@
       <c r="G44" s="1" t="n"/>
       <c r="H44" s="1" t="n"/>
       <c r="I44" s="1" t="n"/>
-      <c r="J44" s="1" t="n"/>
-      <c r="K44" s="1" t="n"/>
-      <c r="L44" s="1" t="n"/>
-      <c r="M44" s="1" t="n"/>
+      <c r="J44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N44" s="1" t="n"/>
-      <c r="O44" s="1" t="n"/>
-      <c r="P44" s="1" t="n"/>
-      <c r="Q44" s="1" t="n"/>
-      <c r="R44" s="1" t="n"/>
+      <c r="O44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>36.465</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>0.465</v>
+      </c>
       <c r="S44" s="1" t="n"/>
       <c r="T44" s="1" t="n"/>
       <c r="U44" s="1" t="n"/>
@@ -9424,33 +9420,17 @@
       <c r="AA44" s="1" t="n"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>12</v>
-      </c>
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
       <c r="I45" s="1" t="n"/>
       <c r="J45" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>0</v>
@@ -9463,16 +9443,16 @@
       </c>
       <c r="N45" s="1" t="n"/>
       <c r="O45" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Q45" s="1" t="n">
-        <v>35.735</v>
+        <v>29.025</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-6.265</v>
+        <v>1.025</v>
       </c>
       <c r="S45" s="1" t="n"/>
       <c r="T45" s="1" t="n"/>
@@ -9495,7 +9475,7 @@
       <c r="H46" s="1" t="n"/>
       <c r="I46" s="1" t="n"/>
       <c r="J46" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>0</v>
@@ -9508,16 +9488,16 @@
       </c>
       <c r="N46" s="1" t="n"/>
       <c r="O46" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>35.335</v>
+        <v>19.595</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>5.335</v>
+        <v>-0.405</v>
       </c>
       <c r="S46" s="1" t="n"/>
       <c r="T46" s="1" t="n"/>
@@ -9539,30 +9519,22 @@
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="1" t="n"/>
       <c r="I47" s="1" t="n"/>
-      <c r="J47" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
       <c r="N47" s="1" t="n"/>
       <c r="O47" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>12.045</v>
+        <v>12.155</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-5.955</v>
+        <v>0.155</v>
       </c>
       <c r="S47" s="1" t="n"/>
       <c r="T47" s="1" t="n"/>
@@ -9584,30 +9556,22 @@
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="1" t="n"/>
       <c r="I48" s="1" t="n"/>
-      <c r="J48" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
       <c r="N48" s="1" t="n"/>
       <c r="O48" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P48" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="Q48" s="1" t="n">
-        <v>11.645</v>
+        <v>4.715</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>5.645</v>
+        <v>0.715</v>
       </c>
       <c r="S48" s="1" t="n"/>
       <c r="T48" s="1" t="n"/>
@@ -9635,16 +9599,16 @@
       <c r="M49" s="1" t="n"/>
       <c r="N49" s="1" t="n"/>
       <c r="O49" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>-11.645</v>
+        <v>-4.715</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-5.645</v>
+        <v>-0.715</v>
       </c>
       <c r="S49" s="1" t="n"/>
       <c r="T49" s="1" t="n"/>
@@ -9672,16 +9636,16 @@
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
       <c r="O50" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>-12.045</v>
+        <v>-12.155</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>5.955</v>
+        <v>-0.155</v>
       </c>
       <c r="S50" s="1" t="n"/>
       <c r="T50" s="1" t="n"/>
@@ -9709,16 +9673,16 @@
       <c r="M51" s="1" t="n"/>
       <c r="N51" s="1" t="n"/>
       <c r="O51" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>-35.335</v>
+        <v>-19.595</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-5.335</v>
+        <v>0.405</v>
       </c>
       <c r="S51" s="1" t="n"/>
       <c r="T51" s="1" t="n"/>
@@ -9746,16 +9710,16 @@
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
       <c r="O52" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="Q52" s="1" t="n">
-        <v>-35.735</v>
+        <v>-29.025</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>6.265</v>
+        <v>-1.025</v>
       </c>
       <c r="S52" s="1" t="n"/>
       <c r="T52" s="1" t="n"/>
@@ -9782,10 +9746,18 @@
       <c r="L53" s="1" t="n"/>
       <c r="M53" s="1" t="n"/>
       <c r="N53" s="1" t="n"/>
-      <c r="O53" s="1" t="n"/>
-      <c r="P53" s="1" t="n"/>
-      <c r="Q53" s="1" t="n"/>
-      <c r="R53" s="1" t="n"/>
+      <c r="O53" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="P53" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>-36.465</v>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>-0.465</v>
+      </c>
       <c r="S53" s="1" t="n"/>
       <c r="T53" s="1" t="n"/>
       <c r="U53" s="1" t="n"/>
@@ -9811,10 +9783,18 @@
       <c r="L54" s="1" t="n"/>
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
-      <c r="O54" s="1" t="n"/>
-      <c r="P54" s="1" t="n"/>
-      <c r="Q54" s="1" t="n"/>
-      <c r="R54" s="1" t="n"/>
+      <c r="O54" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>-43.905</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>0.095</v>
+      </c>
       <c r="S54" s="1" t="n"/>
       <c r="T54" s="1" t="n"/>
       <c r="U54" s="1" t="n"/>
@@ -9826,56 +9806,24 @@
       <c r="AA54" s="1" t="n"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>8</v>
-      </c>
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+      <c r="F55" s="1" t="n"/>
+      <c r="G55" s="1" t="n"/>
+      <c r="H55" s="1" t="n"/>
       <c r="I55" s="1" t="n"/>
-      <c r="J55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="n"/>
+      <c r="L55" s="1" t="n"/>
+      <c r="M55" s="1" t="n"/>
       <c r="N55" s="1" t="n"/>
-      <c r="O55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q55" s="1" t="n">
-        <v>44.095</v>
-      </c>
-      <c r="R55" s="1" t="n">
-        <v>0.095</v>
-      </c>
+      <c r="O55" s="1" t="n"/>
+      <c r="P55" s="1" t="n"/>
+      <c r="Q55" s="1" t="n"/>
+      <c r="R55" s="1" t="n"/>
       <c r="S55" s="1" t="n"/>
       <c r="T55" s="1" t="n"/>
       <c r="U55" s="1" t="n"/>
@@ -9896,31 +9844,15 @@
       <c r="G56" s="1" t="n"/>
       <c r="H56" s="1" t="n"/>
       <c r="I56" s="1" t="n"/>
-      <c r="J56" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" s="1" t="n"/>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="n"/>
+      <c r="M56" s="1" t="n"/>
       <c r="N56" s="1" t="n"/>
-      <c r="O56" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P56" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q56" s="1" t="n">
-        <v>35.535</v>
-      </c>
-      <c r="R56" s="1" t="n">
-        <v>-0.465</v>
-      </c>
+      <c r="O56" s="1" t="n"/>
+      <c r="P56" s="1" t="n"/>
+      <c r="Q56" s="1" t="n"/>
+      <c r="R56" s="1" t="n"/>
       <c r="S56" s="1" t="n"/>
       <c r="T56" s="1" t="n"/>
       <c r="U56" s="1" t="n"/>
@@ -9932,17 +9864,33 @@
       <c r="AA56" s="1" t="n"/>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n"/>
-      <c r="D57" s="1" t="n"/>
-      <c r="E57" s="1" t="n"/>
-      <c r="F57" s="1" t="n"/>
-      <c r="G57" s="1" t="n"/>
-      <c r="H57" s="1" t="n"/>
+      <c r="A57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="I57" s="1" t="n"/>
       <c r="J57" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>0</v>
@@ -9955,16 +9903,16 @@
       </c>
       <c r="N57" s="1" t="n"/>
       <c r="O57" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q57" s="1" t="n">
-        <v>26.975</v>
+        <v>43.905</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-1.025</v>
+        <v>-0.095</v>
       </c>
       <c r="S57" s="1" t="n"/>
       <c r="T57" s="1" t="n"/>
@@ -9987,7 +9935,7 @@
       <c r="H58" s="1" t="n"/>
       <c r="I58" s="1" t="n"/>
       <c r="J58" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>0</v>
@@ -10000,16 +9948,16 @@
       </c>
       <c r="N58" s="1" t="n"/>
       <c r="O58" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q58" s="1" t="n">
-        <v>20.405</v>
+        <v>36.465</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0.405</v>
+        <v>0.465</v>
       </c>
       <c r="S58" s="1" t="n"/>
       <c r="T58" s="1" t="n"/>
@@ -10031,22 +9979,30 @@
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="1" t="n"/>
       <c r="I59" s="1" t="n"/>
-      <c r="J59" s="1" t="n"/>
-      <c r="K59" s="1" t="n"/>
-      <c r="L59" s="1" t="n"/>
-      <c r="M59" s="1" t="n"/>
+      <c r="J59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N59" s="1" t="n"/>
       <c r="O59" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q59" s="1" t="n">
-        <v>11.845</v>
+        <v>29.025</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.155</v>
+        <v>1.025</v>
       </c>
       <c r="S59" s="1" t="n"/>
       <c r="T59" s="1" t="n"/>
@@ -10068,22 +10024,30 @@
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="1" t="n"/>
       <c r="I60" s="1" t="n"/>
-      <c r="J60" s="1" t="n"/>
-      <c r="K60" s="1" t="n"/>
-      <c r="L60" s="1" t="n"/>
-      <c r="M60" s="1" t="n"/>
+      <c r="J60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N60" s="1" t="n"/>
       <c r="O60" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="1" t="n">
-        <v>3.285</v>
+        <v>19.595</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.715</v>
+        <v>-0.405</v>
       </c>
       <c r="S60" s="1" t="n"/>
       <c r="T60" s="1" t="n"/>
@@ -10111,16 +10075,16 @@
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
       <c r="O61" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="Q61" s="1" t="n">
-        <v>-3.285</v>
+        <v>12.155</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.715</v>
+        <v>0.155</v>
       </c>
       <c r="S61" s="1" t="n"/>
       <c r="T61" s="1" t="n"/>
@@ -10148,16 +10112,16 @@
       <c r="M62" s="1" t="n"/>
       <c r="N62" s="1" t="n"/>
       <c r="O62" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="Q62" s="1" t="n">
-        <v>-11.845</v>
+        <v>4.715</v>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0.155</v>
+        <v>0.715</v>
       </c>
       <c r="S62" s="1" t="n"/>
       <c r="T62" s="1" t="n"/>
@@ -10185,16 +10149,16 @@
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
       <c r="O63" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="Q63" s="1" t="n">
-        <v>-20.405</v>
+        <v>-4.715</v>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.405</v>
+        <v>-0.715</v>
       </c>
       <c r="S63" s="1" t="n"/>
       <c r="T63" s="1" t="n"/>
@@ -10222,16 +10186,16 @@
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
       <c r="O64" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-28</v>
+        <v>-12</v>
       </c>
       <c r="Q64" s="1" t="n">
-        <v>-26.975</v>
+        <v>-12.155</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>1.025</v>
+        <v>-0.155</v>
       </c>
       <c r="S64" s="1" t="n"/>
       <c r="T64" s="1" t="n"/>
@@ -10259,16 +10223,16 @@
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
       <c r="O65" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>-36</v>
+        <v>-20</v>
       </c>
       <c r="Q65" s="1" t="n">
-        <v>-35.535</v>
+        <v>-19.595</v>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0.465</v>
+        <v>0.405</v>
       </c>
       <c r="S65" s="1" t="n"/>
       <c r="T65" s="1" t="n"/>
@@ -10296,16 +10260,16 @@
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
       <c r="O66" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-44</v>
+        <v>-28</v>
       </c>
       <c r="Q66" s="1" t="n">
-        <v>-44.095</v>
+        <v>-29.025</v>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.095</v>
+        <v>-1.025</v>
       </c>
       <c r="S66" s="1" t="n"/>
       <c r="T66" s="1" t="n"/>
@@ -10332,10 +10296,18 @@
       <c r="L67" s="1" t="n"/>
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
-      <c r="O67" s="1" t="n"/>
-      <c r="P67" s="1" t="n"/>
-      <c r="Q67" s="1" t="n"/>
-      <c r="R67" s="1" t="n"/>
+      <c r="O67" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>-36.465</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>-0.465</v>
+      </c>
       <c r="S67" s="1" t="n"/>
       <c r="T67" s="1" t="n"/>
       <c r="U67" s="1" t="n"/>
@@ -10361,10 +10333,18 @@
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
-      <c r="O68" s="1" t="n"/>
-      <c r="P68" s="1" t="n"/>
-      <c r="Q68" s="1" t="n"/>
-      <c r="R68" s="1" t="n"/>
+      <c r="O68" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>-43.905</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>0.095</v>
+      </c>
       <c r="S68" s="1" t="n"/>
       <c r="T68" s="1" t="n"/>
       <c r="U68" s="1" t="n"/>
@@ -10376,56 +10356,24 @@
       <c r="AA68" s="1" t="n"/>
     </row>
     <row r="69" spans="1:27">
-      <c r="A69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <v>8</v>
-      </c>
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+      <c r="F69" s="1" t="n"/>
+      <c r="G69" s="1" t="n"/>
+      <c r="H69" s="1" t="n"/>
       <c r="I69" s="1" t="n"/>
-      <c r="J69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" s="1" t="n"/>
+      <c r="K69" s="1" t="n"/>
+      <c r="L69" s="1" t="n"/>
+      <c r="M69" s="1" t="n"/>
       <c r="N69" s="1" t="n"/>
-      <c r="O69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q69" s="1" t="n">
-        <v>44.095</v>
-      </c>
-      <c r="R69" s="1" t="n">
-        <v>0.095</v>
-      </c>
+      <c r="O69" s="1" t="n"/>
+      <c r="P69" s="1" t="n"/>
+      <c r="Q69" s="1" t="n"/>
+      <c r="R69" s="1" t="n"/>
       <c r="S69" s="1" t="n"/>
       <c r="T69" s="1" t="n"/>
       <c r="U69" s="1" t="n"/>
@@ -10446,31 +10394,15 @@
       <c r="G70" s="1" t="n"/>
       <c r="H70" s="1" t="n"/>
       <c r="I70" s="1" t="n"/>
-      <c r="J70" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" s="1" t="n"/>
+      <c r="K70" s="1" t="n"/>
+      <c r="L70" s="1" t="n"/>
+      <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
-      <c r="O70" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P70" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q70" s="1" t="n">
-        <v>35.535</v>
-      </c>
-      <c r="R70" s="1" t="n">
-        <v>-0.465</v>
-      </c>
+      <c r="O70" s="1" t="n"/>
+      <c r="P70" s="1" t="n"/>
+      <c r="Q70" s="1" t="n"/>
+      <c r="R70" s="1" t="n"/>
       <c r="S70" s="1" t="n"/>
       <c r="T70" s="1" t="n"/>
       <c r="U70" s="1" t="n"/>
@@ -10482,17 +10414,33 @@
       <c r="AA70" s="1" t="n"/>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n"/>
-      <c r="D71" s="1" t="n"/>
-      <c r="E71" s="1" t="n"/>
-      <c r="F71" s="1" t="n"/>
-      <c r="G71" s="1" t="n"/>
-      <c r="H71" s="1" t="n"/>
+      <c r="A71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>12</v>
+      </c>
       <c r="I71" s="1" t="n"/>
       <c r="J71" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>0</v>
@@ -10505,16 +10453,16 @@
       </c>
       <c r="N71" s="1" t="n"/>
       <c r="O71" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>26.975</v>
+        <v>48.265</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-1.025</v>
+        <v>6.265</v>
       </c>
       <c r="S71" s="1" t="n"/>
       <c r="T71" s="1" t="n"/>
@@ -10537,7 +10485,7 @@
       <c r="H72" s="1" t="n"/>
       <c r="I72" s="1" t="n"/>
       <c r="J72" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>0</v>
@@ -10550,16 +10498,16 @@
       </c>
       <c r="N72" s="1" t="n"/>
       <c r="O72" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q72" s="1" t="n">
-        <v>20.405</v>
+        <v>24.665</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0.405</v>
+        <v>-5.335</v>
       </c>
       <c r="S72" s="1" t="n"/>
       <c r="T72" s="1" t="n"/>
@@ -10581,22 +10529,30 @@
       <c r="G73" s="1" t="n"/>
       <c r="H73" s="1" t="n"/>
       <c r="I73" s="1" t="n"/>
-      <c r="J73" s="1" t="n"/>
-      <c r="K73" s="1" t="n"/>
-      <c r="L73" s="1" t="n"/>
-      <c r="M73" s="1" t="n"/>
+      <c r="J73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N73" s="1" t="n"/>
       <c r="O73" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q73" s="1" t="n">
-        <v>11.845</v>
+        <v>23.955</v>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-0.155</v>
+        <v>5.955</v>
       </c>
       <c r="S73" s="1" t="n"/>
       <c r="T73" s="1" t="n"/>
@@ -10618,22 +10574,30 @@
       <c r="G74" s="1" t="n"/>
       <c r="H74" s="1" t="n"/>
       <c r="I74" s="1" t="n"/>
-      <c r="J74" s="1" t="n"/>
-      <c r="K74" s="1" t="n"/>
-      <c r="L74" s="1" t="n"/>
-      <c r="M74" s="1" t="n"/>
+      <c r="J74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N74" s="1" t="n"/>
       <c r="O74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P74" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="P74" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="Q74" s="1" t="n">
-        <v>3.285</v>
+        <v>0.355</v>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-0.715</v>
+        <v>-5.645</v>
       </c>
       <c r="S74" s="1" t="n"/>
       <c r="T74" s="1" t="n"/>
@@ -10661,16 +10625,16 @@
       <c r="M75" s="1" t="n"/>
       <c r="N75" s="1" t="n"/>
       <c r="O75" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="Q75" s="1" t="n">
-        <v>-3.285</v>
+        <v>-0.355</v>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0.715</v>
+        <v>5.645</v>
       </c>
       <c r="S75" s="1" t="n"/>
       <c r="T75" s="1" t="n"/>
@@ -10698,16 +10662,16 @@
       <c r="M76" s="1" t="n"/>
       <c r="N76" s="1" t="n"/>
       <c r="O76" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="Q76" s="1" t="n">
-        <v>-11.845</v>
+        <v>-23.955</v>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0.155</v>
+        <v>-5.955</v>
       </c>
       <c r="S76" s="1" t="n"/>
       <c r="T76" s="1" t="n"/>
@@ -10735,16 +10699,16 @@
       <c r="M77" s="1" t="n"/>
       <c r="N77" s="1" t="n"/>
       <c r="O77" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="Q77" s="1" t="n">
-        <v>-20.405</v>
+        <v>-24.665</v>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-0.405</v>
+        <v>5.335</v>
       </c>
       <c r="S77" s="1" t="n"/>
       <c r="T77" s="1" t="n"/>
@@ -10772,16 +10736,16 @@
       <c r="M78" s="1" t="n"/>
       <c r="N78" s="1" t="n"/>
       <c r="O78" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>-28</v>
+        <v>-42</v>
       </c>
       <c r="Q78" s="1" t="n">
-        <v>-26.975</v>
+        <v>-48.265</v>
       </c>
       <c r="R78" s="1" t="n">
-        <v>1.025</v>
+        <v>-6.265</v>
       </c>
       <c r="S78" s="1" t="n"/>
       <c r="T78" s="1" t="n"/>
@@ -10808,18 +10772,10 @@
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n"/>
       <c r="N79" s="1" t="n"/>
-      <c r="O79" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="P79" s="1" t="n">
-        <v>-36</v>
-      </c>
-      <c r="Q79" s="1" t="n">
-        <v>-35.535</v>
-      </c>
-      <c r="R79" s="1" t="n">
-        <v>0.465</v>
-      </c>
+      <c r="O79" s="1" t="n"/>
+      <c r="P79" s="1" t="n"/>
+      <c r="Q79" s="1" t="n"/>
+      <c r="R79" s="1" t="n"/>
       <c r="S79" s="1" t="n"/>
       <c r="T79" s="1" t="n"/>
       <c r="U79" s="1" t="n"/>
@@ -10845,18 +10801,10 @@
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n"/>
       <c r="N80" s="1" t="n"/>
-      <c r="O80" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="P80" s="1" t="n">
-        <v>-44</v>
-      </c>
-      <c r="Q80" s="1" t="n">
-        <v>-44.095</v>
-      </c>
-      <c r="R80" s="1" t="n">
-        <v>-0.095</v>
-      </c>
+      <c r="O80" s="1" t="n"/>
+      <c r="P80" s="1" t="n"/>
+      <c r="Q80" s="1" t="n"/>
+      <c r="R80" s="1" t="n"/>
       <c r="S80" s="1" t="n"/>
       <c r="T80" s="1" t="n"/>
       <c r="U80" s="1" t="n"/>
@@ -10926,56 +10874,24 @@
       <c r="AA82" s="1" t="n"/>
     </row>
     <row r="83" spans="1:27">
-      <c r="A83" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="H83" s="1" t="n">
-        <v>12</v>
-      </c>
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n"/>
       <c r="I83" s="1" t="n"/>
-      <c r="J83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
       <c r="N83" s="1" t="n"/>
-      <c r="O83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P83" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q83" s="1" t="n">
-        <v>35.735</v>
-      </c>
-      <c r="R83" s="1" t="n">
-        <v>-6.265</v>
-      </c>
+      <c r="O83" s="1" t="n"/>
+      <c r="P83" s="1" t="n"/>
+      <c r="Q83" s="1" t="n"/>
+      <c r="R83" s="1" t="n"/>
       <c r="S83" s="1" t="n"/>
       <c r="T83" s="1" t="n"/>
       <c r="U83" s="1" t="n"/>
@@ -10996,31 +10912,15 @@
       <c r="G84" s="1" t="n"/>
       <c r="H84" s="1" t="n"/>
       <c r="I84" s="1" t="n"/>
-      <c r="J84" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" s="1" t="n"/>
+      <c r="K84" s="1" t="n"/>
+      <c r="L84" s="1" t="n"/>
+      <c r="M84" s="1" t="n"/>
       <c r="N84" s="1" t="n"/>
-      <c r="O84" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P84" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q84" s="1" t="n">
-        <v>35.335</v>
-      </c>
-      <c r="R84" s="1" t="n">
-        <v>5.335</v>
-      </c>
+      <c r="O84" s="1" t="n"/>
+      <c r="P84" s="1" t="n"/>
+      <c r="Q84" s="1" t="n"/>
+      <c r="R84" s="1" t="n"/>
       <c r="S84" s="1" t="n"/>
       <c r="T84" s="1" t="n"/>
       <c r="U84" s="1" t="n"/>
@@ -11041,31 +10941,15 @@
       <c r="G85" s="1" t="n"/>
       <c r="H85" s="1" t="n"/>
       <c r="I85" s="1" t="n"/>
-      <c r="J85" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" s="1" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="1" t="n"/>
+      <c r="M85" s="1" t="n"/>
       <c r="N85" s="1" t="n"/>
-      <c r="O85" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P85" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q85" s="1" t="n">
-        <v>12.045</v>
-      </c>
-      <c r="R85" s="1" t="n">
-        <v>-5.955</v>
-      </c>
+      <c r="O85" s="1" t="n"/>
+      <c r="P85" s="1" t="n"/>
+      <c r="Q85" s="1" t="n"/>
+      <c r="R85" s="1" t="n"/>
       <c r="S85" s="1" t="n"/>
       <c r="T85" s="1" t="n"/>
       <c r="U85" s="1" t="n"/>
@@ -11086,31 +10970,15 @@
       <c r="G86" s="1" t="n"/>
       <c r="H86" s="1" t="n"/>
       <c r="I86" s="1" t="n"/>
-      <c r="J86" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" s="1" t="n"/>
+      <c r="K86" s="1" t="n"/>
+      <c r="L86" s="1" t="n"/>
+      <c r="M86" s="1" t="n"/>
       <c r="N86" s="1" t="n"/>
-      <c r="O86" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P86" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q86" s="1" t="n">
-        <v>11.645</v>
-      </c>
-      <c r="R86" s="1" t="n">
-        <v>5.645</v>
-      </c>
+      <c r="O86" s="1" t="n"/>
+      <c r="P86" s="1" t="n"/>
+      <c r="Q86" s="1" t="n"/>
+      <c r="R86" s="1" t="n"/>
       <c r="S86" s="1" t="n"/>
       <c r="T86" s="1" t="n"/>
       <c r="U86" s="1" t="n"/>
@@ -11136,18 +11004,10 @@
       <c r="L87" s="1" t="n"/>
       <c r="M87" s="1" t="n"/>
       <c r="N87" s="1" t="n"/>
-      <c r="O87" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P87" s="1" t="n">
-        <v>-6</v>
-      </c>
-      <c r="Q87" s="1" t="n">
-        <v>-11.645</v>
-      </c>
-      <c r="R87" s="1" t="n">
-        <v>-5.645</v>
-      </c>
+      <c r="O87" s="1" t="n"/>
+      <c r="P87" s="1" t="n"/>
+      <c r="Q87" s="1" t="n"/>
+      <c r="R87" s="1" t="n"/>
       <c r="S87" s="1" t="n"/>
       <c r="T87" s="1" t="n"/>
       <c r="U87" s="1" t="n"/>
@@ -11173,18 +11033,10 @@
       <c r="L88" s="1" t="n"/>
       <c r="M88" s="1" t="n"/>
       <c r="N88" s="1" t="n"/>
-      <c r="O88" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="P88" s="1" t="n">
-        <v>-18</v>
-      </c>
-      <c r="Q88" s="1" t="n">
-        <v>-12.045</v>
-      </c>
-      <c r="R88" s="1" t="n">
-        <v>5.955</v>
-      </c>
+      <c r="O88" s="1" t="n"/>
+      <c r="P88" s="1" t="n"/>
+      <c r="Q88" s="1" t="n"/>
+      <c r="R88" s="1" t="n"/>
       <c r="S88" s="1" t="n"/>
       <c r="T88" s="1" t="n"/>
       <c r="U88" s="1" t="n"/>
@@ -11210,18 +11062,10 @@
       <c r="L89" s="1" t="n"/>
       <c r="M89" s="1" t="n"/>
       <c r="N89" s="1" t="n"/>
-      <c r="O89" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="P89" s="1" t="n">
-        <v>-30</v>
-      </c>
-      <c r="Q89" s="1" t="n">
-        <v>-35.335</v>
-      </c>
-      <c r="R89" s="1" t="n">
-        <v>-5.335</v>
-      </c>
+      <c r="O89" s="1" t="n"/>
+      <c r="P89" s="1" t="n"/>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
       <c r="S89" s="1" t="n"/>
       <c r="T89" s="1" t="n"/>
       <c r="U89" s="1" t="n"/>
@@ -11247,18 +11091,10 @@
       <c r="L90" s="1" t="n"/>
       <c r="M90" s="1" t="n"/>
       <c r="N90" s="1" t="n"/>
-      <c r="O90" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="P90" s="1" t="n">
-        <v>-42</v>
-      </c>
-      <c r="Q90" s="1" t="n">
-        <v>-35.735</v>
-      </c>
-      <c r="R90" s="1" t="n">
-        <v>6.265</v>
-      </c>
+      <c r="O90" s="1" t="n"/>
+      <c r="P90" s="1" t="n"/>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
       <c r="S90" s="1" t="n"/>
       <c r="T90" s="1" t="n"/>
       <c r="U90" s="1" t="n"/>
